--- a/src/main/resources/excel/information_warranty.xlsx
+++ b/src/main/resources/excel/information_warranty.xlsx
@@ -94,10 +94,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -106,6 +106,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -123,34 +129,133 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,123 +270,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,25 +305,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,157 +437,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +514,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +549,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +596,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,190 +607,151 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,30 +759,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1046,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
@@ -1194,7 +1190,7 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">

--- a/src/main/resources/excel/information_warranty.xlsx
+++ b/src/main/resources/excel/information_warranty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Người xuất</t>
   </si>
@@ -37,10 +37,40 @@
     <t>STT</t>
   </si>
   <si>
+    <t>Thông tin khách hàng (Thông tin người mua)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại </t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Thời gian bảo hành</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
     <t>Họ và tên</t>
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Địa chỉ đăng ký</t>
+  </si>
+  <si>
+    <t>Địa chỉ kích hoạt</t>
+  </si>
+  <si>
+    <t>Phân cấp</t>
+  </si>
+  <si>
+    <t>Nguồn truy xuất</t>
   </si>
   <si>
     <t>Mã cuộn tôn</t>
@@ -49,16 +79,25 @@
     <t>Tên sản phẩm</t>
   </si>
   <si>
-    <t>Địa chỉ đăng ký</t>
+    <t>Loại cuộn</t>
   </si>
   <si>
-    <t>Địa chỉ kích hoạt</t>
+    <t>Màu sắc</t>
   </si>
   <si>
-    <t>Trạng thái</t>
+    <t>Dem</t>
   </si>
   <si>
-    <t>ghi chú</t>
+    <t>Ngày kích hoạt</t>
+  </si>
+  <si>
+    <t>Phai màu</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>Chống ăn mòn</t>
   </si>
   <si>
     <t>{list.stt}</t>
@@ -70,16 +109,46 @@
     <t>{list.phoneNumber}</t>
   </si>
   <si>
+    <t>{list.locationAccountFull}</t>
+  </si>
+  <si>
+    <t>{list.locationWarrantyFull}</t>
+  </si>
+  <si>
+    <t>{list.hierarchyLevel}</t>
+  </si>
+  <si>
+    <t>{list.source}</t>
+  </si>
+  <si>
     <t>{list.maCuonTon}</t>
   </si>
   <si>
     <t>{list.tenSanPham}</t>
   </si>
   <si>
-    <t>{list.locationAccountFull}</t>
+    <t>{list.loaiCuon}</t>
   </si>
   <si>
-    <t>{list.locationWarrantyFull}</t>
+    <t>{list.mau}</t>
+  </si>
+  <si>
+    <t>{list.doDay}</t>
+  </si>
+  <si>
+    <t>{list.fromWarrantyAnMon}</t>
+  </si>
+  <si>
+    <t>{list.toWarrantyPhaiMau}</t>
+  </si>
+  <si>
+    <t>{list.yearWarrantyPhaiMau}</t>
+  </si>
+  <si>
+    <t>{list.toWarrantyAnMon}</t>
+  </si>
+  <si>
+    <t>{list.yearWarrantyAnMon}</t>
   </si>
   <si>
     <t>{list.status}</t>
@@ -92,14 +161,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy\ hh:mm"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="d\.m"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,6 +204,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -142,9 +224,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,36 +300,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -202,6 +314,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
@@ -209,16 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,45 +358,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,7 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,25 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,55 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,12 +573,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -508,8 +614,80 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +703,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,161 +769,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,14 +942,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,27 +1257,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:AJ1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5047619047619" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.6285714285714" style="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5047619047619" style="1" customWidth="1"/>
+    <col min="4" max="5" width="48.752380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.247619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.247619047619" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.247619047619" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.247619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5047619047619" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.247619047619" style="1" customWidth="1"/>
+    <col min="19" max="19" width="44.8761904761905" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1305,18 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:14">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1335,18 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:14">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1365,18 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:14">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:24">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1138,66 +1391,7578 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="M6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:20">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:36">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:36">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:36">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:20">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:20">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:20">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:20">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:20">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:20">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:20">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:20">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:20">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:20">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:20">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:20">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:20">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:20">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:20">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:20">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:20">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:20">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:20">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:20">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:20">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:20">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:20">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:20">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:17">
+      <c r="A35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:17">
+      <c r="A36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:17">
+      <c r="A37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:17">
+      <c r="A38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:17">
+      <c r="A39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:17">
+      <c r="A40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:17">
+      <c r="A41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:17">
+      <c r="A42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:17">
+      <c r="A43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:17">
+      <c r="A44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:17">
+      <c r="A45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:17">
+      <c r="A46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:17">
+      <c r="A47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:17">
+      <c r="A48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:17">
+      <c r="A49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:17">
+      <c r="A50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:17">
+      <c r="A51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:17">
+      <c r="A52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:17">
+      <c r="A53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:17">
+      <c r="A54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:17">
+      <c r="A55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:17">
+      <c r="A56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:17">
+      <c r="A57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:17">
+      <c r="A58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:17">
+      <c r="A59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:17">
+      <c r="A60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:17">
+      <c r="A61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:17">
+      <c r="A62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:17">
+      <c r="A63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:17">
+      <c r="A64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:17">
+      <c r="A65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:17">
+      <c r="A66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:17">
+      <c r="A67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:17">
+      <c r="A68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:17">
+      <c r="A69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:17">
+      <c r="A70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:17">
+      <c r="A71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:17">
+      <c r="A72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:17">
+      <c r="A73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:17">
+      <c r="A74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:17">
+      <c r="A75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:17">
+      <c r="A76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:17">
+      <c r="A77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:17">
+      <c r="A78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:17">
+      <c r="A79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:17">
+      <c r="A80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:17">
+      <c r="A81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:17">
+      <c r="A82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:17">
+      <c r="A83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:17">
+      <c r="A84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:17">
+      <c r="A85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:17">
+      <c r="A86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:17">
+      <c r="A87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:17">
+      <c r="A88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:17">
+      <c r="A89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:17">
+      <c r="A90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:17">
+      <c r="A91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:17">
+      <c r="A92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:17">
+      <c r="A93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:17">
+      <c r="A94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:17">
+      <c r="A95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:17">
+      <c r="A96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:17">
+      <c r="A97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:17">
+      <c r="A98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:17">
+      <c r="A99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:17">
+      <c r="A100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:17">
+      <c r="A101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:17">
+      <c r="A102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:17">
+      <c r="A103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:17">
+      <c r="A104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:17">
+      <c r="A105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:17">
+      <c r="A106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:17">
+      <c r="A107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:17">
+      <c r="A108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:17">
+      <c r="A109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:17">
+      <c r="A110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:17">
+      <c r="A111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:17">
+      <c r="A112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:17">
+      <c r="A113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:17">
+      <c r="A114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:17">
+      <c r="A115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="Q115" s="4"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:17">
+      <c r="A116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:17">
+      <c r="A117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="Q117" s="4"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:17">
+      <c r="A118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:17">
+      <c r="A119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:17">
+      <c r="A120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:17">
+      <c r="A121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:17">
+      <c r="A122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:17">
+      <c r="A123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:17">
+      <c r="A124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:17">
+      <c r="A125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:17">
+      <c r="A126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:17">
+      <c r="A127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="Q127" s="4"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:17">
+      <c r="A128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:17">
+      <c r="A129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:17">
+      <c r="A130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:17">
+      <c r="A131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:17">
+      <c r="A132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:17">
+      <c r="A133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="Q133" s="4"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:17">
+      <c r="A134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:17">
+      <c r="A135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="Q135" s="4"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:17">
+      <c r="A136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:17">
+      <c r="A137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="Q137" s="4"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:17">
+      <c r="A138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:17">
+      <c r="A139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="Q139" s="4"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:17">
+      <c r="A140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:17">
+      <c r="A141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="Q141" s="4"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:17">
+      <c r="A142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="Q142" s="4"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:17">
+      <c r="A143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="Q143" s="4"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:17">
+      <c r="A144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="Q144" s="4"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:17">
+      <c r="A145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="Q145" s="4"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:17">
+      <c r="A146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="Q146" s="4"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:17">
+      <c r="A147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="Q147" s="4"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:17">
+      <c r="A148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="Q148" s="4"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:17">
+      <c r="A149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="Q149" s="4"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:17">
+      <c r="A150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="Q150" s="4"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:17">
+      <c r="A151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="Q151" s="4"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:17">
+      <c r="A152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="Q152" s="4"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:17">
+      <c r="A153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="Q153" s="4"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:17">
+      <c r="A154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="Q154" s="4"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:17">
+      <c r="A155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="Q155" s="4"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:17">
+      <c r="A156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="Q156" s="4"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:17">
+      <c r="A157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="Q157" s="4"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:17">
+      <c r="A158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="Q158" s="4"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:17">
+      <c r="A159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="Q159" s="4"/>
+    </row>
+    <row r="160" customHeight="1" spans="1:17">
+      <c r="A160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="Q160" s="4"/>
+    </row>
+    <row r="161" customHeight="1" spans="1:17">
+      <c r="A161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="Q161" s="4"/>
+    </row>
+    <row r="162" customHeight="1" spans="1:17">
+      <c r="A162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="Q162" s="4"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:17">
+      <c r="A163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="Q163" s="4"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:17">
+      <c r="A164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="Q164" s="4"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:17">
+      <c r="A165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="Q165" s="4"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:17">
+      <c r="A166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="Q166" s="4"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:17">
+      <c r="A167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="Q167" s="4"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:17">
+      <c r="A168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="Q168" s="4"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:17">
+      <c r="A169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="Q169" s="4"/>
+    </row>
+    <row r="170" customHeight="1" spans="1:17">
+      <c r="A170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="Q170" s="4"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:17">
+      <c r="A171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="Q171" s="4"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:17">
+      <c r="A172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="Q172" s="4"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:17">
+      <c r="A173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="Q173" s="4"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:17">
+      <c r="A174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="Q174" s="4"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:17">
+      <c r="A175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="Q175" s="4"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:17">
+      <c r="A176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="Q176" s="4"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:17">
+      <c r="A177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="Q177" s="4"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:17">
+      <c r="A178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="Q178" s="4"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:17">
+      <c r="A179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="Q179" s="4"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:17">
+      <c r="A180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="Q180" s="4"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:17">
+      <c r="A181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="Q181" s="4"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:17">
+      <c r="A182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="Q182" s="4"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:17">
+      <c r="A183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="Q183" s="4"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:17">
+      <c r="A184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="Q184" s="4"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:17">
+      <c r="A185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="Q185" s="4"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:17">
+      <c r="A186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="Q186" s="4"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:17">
+      <c r="A187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="Q187" s="4"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:17">
+      <c r="A188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="Q188" s="4"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:17">
+      <c r="A189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="Q189" s="4"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:17">
+      <c r="A190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="Q190" s="4"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:17">
+      <c r="A191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="Q191" s="4"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:17">
+      <c r="A192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="Q192" s="4"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:17">
+      <c r="A193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="Q193" s="4"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:17">
+      <c r="A194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="Q194" s="4"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:17">
+      <c r="A195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="Q195" s="4"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:17">
+      <c r="A196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="Q196" s="4"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:17">
+      <c r="A197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="Q197" s="4"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:17">
+      <c r="A198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="Q198" s="4"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:17">
+      <c r="A199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="Q199" s="4"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:17">
+      <c r="A200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="Q200" s="4"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:17">
+      <c r="A201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="Q201" s="4"/>
+    </row>
+    <row r="202" customHeight="1" spans="1:17">
+      <c r="A202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="Q202" s="4"/>
+    </row>
+    <row r="203" customHeight="1" spans="1:17">
+      <c r="A203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="Q203" s="4"/>
+    </row>
+    <row r="204" customHeight="1" spans="1:17">
+      <c r="A204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="Q204" s="4"/>
+    </row>
+    <row r="205" customHeight="1" spans="1:17">
+      <c r="A205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="Q205" s="4"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:17">
+      <c r="A206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="Q206" s="4"/>
+    </row>
+    <row r="207" customHeight="1" spans="1:17">
+      <c r="A207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="Q207" s="4"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:17">
+      <c r="A208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="Q208" s="4"/>
+    </row>
+    <row r="209" customHeight="1" spans="1:17">
+      <c r="A209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="Q209" s="4"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:17">
+      <c r="A210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="Q210" s="4"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:17">
+      <c r="A211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="Q211" s="4"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:17">
+      <c r="A212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="Q212" s="4"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:17">
+      <c r="A213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="Q213" s="4"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:17">
+      <c r="A214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="Q214" s="4"/>
+    </row>
+    <row r="215" customHeight="1" spans="1:17">
+      <c r="A215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="Q215" s="4"/>
+    </row>
+    <row r="216" customHeight="1" spans="1:17">
+      <c r="A216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="Q216" s="4"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:17">
+      <c r="A217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="Q217" s="4"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:17">
+      <c r="A218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="Q218" s="4"/>
+    </row>
+    <row r="219" customHeight="1" spans="1:17">
+      <c r="A219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="Q219" s="4"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:17">
+      <c r="A220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="Q220" s="4"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:17">
+      <c r="A221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="Q221" s="4"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:17">
+      <c r="A222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="Q222" s="4"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:17">
+      <c r="A223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="Q223" s="4"/>
+    </row>
+    <row r="224" customHeight="1" spans="1:17">
+      <c r="A224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="Q224" s="4"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:17">
+      <c r="A225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="Q225" s="4"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:17">
+      <c r="A226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="Q226" s="4"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:17">
+      <c r="A227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="Q227" s="4"/>
+    </row>
+    <row r="228" customHeight="1" spans="1:17">
+      <c r="A228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="Q228" s="4"/>
+    </row>
+    <row r="229" customHeight="1" spans="1:17">
+      <c r="A229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="Q229" s="4"/>
+    </row>
+    <row r="230" customHeight="1" spans="1:17">
+      <c r="A230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="Q230" s="4"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:17">
+      <c r="A231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="Q231" s="4"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:17">
+      <c r="A232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="Q232" s="4"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:17">
+      <c r="A233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="Q233" s="4"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:17">
+      <c r="A234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="O234" s="4"/>
+      <c r="Q234" s="4"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:17">
+      <c r="A235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="Q235" s="4"/>
+    </row>
+    <row r="236" customHeight="1" spans="1:17">
+      <c r="A236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="Q236" s="4"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:17">
+      <c r="A237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="Q237" s="4"/>
+    </row>
+    <row r="238" customHeight="1" spans="1:17">
+      <c r="A238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="O238" s="4"/>
+      <c r="Q238" s="4"/>
+    </row>
+    <row r="239" customHeight="1" spans="1:17">
+      <c r="A239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="O239" s="4"/>
+      <c r="Q239" s="4"/>
+    </row>
+    <row r="240" customHeight="1" spans="1:17">
+      <c r="A240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="O240" s="4"/>
+      <c r="Q240" s="4"/>
+    </row>
+    <row r="241" customHeight="1" spans="1:17">
+      <c r="A241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="O241" s="4"/>
+      <c r="Q241" s="4"/>
+    </row>
+    <row r="242" customHeight="1" spans="1:17">
+      <c r="A242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="Q242" s="4"/>
+    </row>
+    <row r="243" customHeight="1" spans="1:17">
+      <c r="A243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="Q243" s="4"/>
+    </row>
+    <row r="244" customHeight="1" spans="1:17">
+      <c r="A244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="Q244" s="4"/>
+    </row>
+    <row r="245" customHeight="1" spans="1:17">
+      <c r="A245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="O245" s="4"/>
+      <c r="Q245" s="4"/>
+    </row>
+    <row r="246" customHeight="1" spans="1:17">
+      <c r="A246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="O246" s="4"/>
+      <c r="Q246" s="4"/>
+    </row>
+    <row r="247" customHeight="1" spans="1:17">
+      <c r="A247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="O247" s="4"/>
+      <c r="Q247" s="4"/>
+    </row>
+    <row r="248" customHeight="1" spans="1:17">
+      <c r="A248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="O248" s="4"/>
+      <c r="Q248" s="4"/>
+    </row>
+    <row r="249" customHeight="1" spans="1:17">
+      <c r="A249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="O249" s="4"/>
+      <c r="Q249" s="4"/>
+    </row>
+    <row r="250" customHeight="1" spans="1:17">
+      <c r="A250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="O250" s="4"/>
+      <c r="Q250" s="4"/>
+    </row>
+    <row r="251" customHeight="1" spans="1:17">
+      <c r="A251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="O251" s="4"/>
+      <c r="Q251" s="4"/>
+    </row>
+    <row r="252" customHeight="1" spans="1:17">
+      <c r="A252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="O252" s="4"/>
+      <c r="Q252" s="4"/>
+    </row>
+    <row r="253" customHeight="1" spans="1:17">
+      <c r="A253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="O253" s="4"/>
+      <c r="Q253" s="4"/>
+    </row>
+    <row r="254" customHeight="1" spans="1:17">
+      <c r="A254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="O254" s="4"/>
+      <c r="Q254" s="4"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:17">
+      <c r="A255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="O255" s="4"/>
+      <c r="Q255" s="4"/>
+    </row>
+    <row r="256" customHeight="1" spans="1:17">
+      <c r="A256" s="4"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="O256" s="4"/>
+      <c r="Q256" s="4"/>
+    </row>
+    <row r="257" customHeight="1" spans="1:17">
+      <c r="A257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="O257" s="4"/>
+      <c r="Q257" s="4"/>
+    </row>
+    <row r="258" customHeight="1" spans="1:17">
+      <c r="A258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="O258" s="4"/>
+      <c r="Q258" s="4"/>
+    </row>
+    <row r="259" customHeight="1" spans="1:17">
+      <c r="A259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="O259" s="4"/>
+      <c r="Q259" s="4"/>
+    </row>
+    <row r="260" customHeight="1" spans="1:17">
+      <c r="A260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+      <c r="O260" s="4"/>
+      <c r="Q260" s="4"/>
+    </row>
+    <row r="261" customHeight="1" spans="1:17">
+      <c r="A261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+      <c r="O261" s="4"/>
+      <c r="Q261" s="4"/>
+    </row>
+    <row r="262" customHeight="1" spans="1:17">
+      <c r="A262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="O262" s="4"/>
+      <c r="Q262" s="4"/>
+    </row>
+    <row r="263" customHeight="1" spans="1:17">
+      <c r="A263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="O263" s="4"/>
+      <c r="Q263" s="4"/>
+    </row>
+    <row r="264" customHeight="1" spans="1:17">
+      <c r="A264" s="4"/>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+      <c r="O264" s="4"/>
+      <c r="Q264" s="4"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:17">
+      <c r="A265" s="4"/>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+      <c r="O265" s="4"/>
+      <c r="Q265" s="4"/>
+    </row>
+    <row r="266" customHeight="1" spans="1:17">
+      <c r="A266" s="4"/>
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="O266" s="4"/>
+      <c r="Q266" s="4"/>
+    </row>
+    <row r="267" customHeight="1" spans="1:17">
+      <c r="A267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="O267" s="4"/>
+      <c r="Q267" s="4"/>
+    </row>
+    <row r="268" customHeight="1" spans="1:17">
+      <c r="A268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
+      <c r="O268" s="4"/>
+      <c r="Q268" s="4"/>
+    </row>
+    <row r="269" customHeight="1" spans="1:17">
+      <c r="A269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
+      <c r="O269" s="4"/>
+      <c r="Q269" s="4"/>
+    </row>
+    <row r="270" customHeight="1" spans="1:17">
+      <c r="A270" s="4"/>
+      <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
+      <c r="O270" s="4"/>
+      <c r="Q270" s="4"/>
+    </row>
+    <row r="271" customHeight="1" spans="1:17">
+      <c r="A271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
+      <c r="O271" s="4"/>
+      <c r="Q271" s="4"/>
+    </row>
+    <row r="272" customHeight="1" spans="1:17">
+      <c r="A272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="O272" s="4"/>
+      <c r="Q272" s="4"/>
+    </row>
+    <row r="273" customHeight="1" spans="1:17">
+      <c r="A273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+      <c r="O273" s="4"/>
+      <c r="Q273" s="4"/>
+    </row>
+    <row r="274" customHeight="1" spans="1:17">
+      <c r="A274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+      <c r="O274" s="4"/>
+      <c r="Q274" s="4"/>
+    </row>
+    <row r="275" customHeight="1" spans="1:17">
+      <c r="A275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="O275" s="4"/>
+      <c r="Q275" s="4"/>
+    </row>
+    <row r="276" customHeight="1" spans="1:17">
+      <c r="A276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+      <c r="O276" s="4"/>
+      <c r="Q276" s="4"/>
+    </row>
+    <row r="277" customHeight="1" spans="1:17">
+      <c r="A277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
+      <c r="O277" s="4"/>
+      <c r="Q277" s="4"/>
+    </row>
+    <row r="278" customHeight="1" spans="1:17">
+      <c r="A278" s="4"/>
+      <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
+      <c r="O278" s="4"/>
+      <c r="Q278" s="4"/>
+    </row>
+    <row r="279" customHeight="1" spans="1:17">
+      <c r="A279" s="4"/>
+      <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
+      <c r="O279" s="4"/>
+      <c r="Q279" s="4"/>
+    </row>
+    <row r="280" customHeight="1" spans="1:17">
+      <c r="A280" s="4"/>
+      <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
+      <c r="O280" s="4"/>
+      <c r="Q280" s="4"/>
+    </row>
+    <row r="281" customHeight="1" spans="1:17">
+      <c r="A281" s="4"/>
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
+      <c r="O281" s="4"/>
+      <c r="Q281" s="4"/>
+    </row>
+    <row r="282" customHeight="1" spans="1:17">
+      <c r="A282" s="4"/>
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+      <c r="O282" s="4"/>
+      <c r="Q282" s="4"/>
+    </row>
+    <row r="283" customHeight="1" spans="1:17">
+      <c r="A283" s="4"/>
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
+      <c r="O283" s="4"/>
+      <c r="Q283" s="4"/>
+    </row>
+    <row r="284" customHeight="1" spans="1:17">
+      <c r="A284" s="4"/>
+      <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
+      <c r="O284" s="4"/>
+      <c r="Q284" s="4"/>
+    </row>
+    <row r="285" customHeight="1" spans="1:17">
+      <c r="A285" s="4"/>
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+      <c r="O285" s="4"/>
+      <c r="Q285" s="4"/>
+    </row>
+    <row r="286" customHeight="1" spans="1:17">
+      <c r="A286" s="4"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+      <c r="O286" s="4"/>
+      <c r="Q286" s="4"/>
+    </row>
+    <row r="287" customHeight="1" spans="1:17">
+      <c r="A287" s="4"/>
+      <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
+      <c r="O287" s="4"/>
+      <c r="Q287" s="4"/>
+    </row>
+    <row r="288" customHeight="1" spans="1:17">
+      <c r="A288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+      <c r="O288" s="4"/>
+      <c r="Q288" s="4"/>
+    </row>
+    <row r="289" customHeight="1" spans="1:17">
+      <c r="A289" s="4"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
+      <c r="O289" s="4"/>
+      <c r="Q289" s="4"/>
+    </row>
+    <row r="290" customHeight="1" spans="1:17">
+      <c r="A290" s="4"/>
+      <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
+      <c r="O290" s="4"/>
+      <c r="Q290" s="4"/>
+    </row>
+    <row r="291" customHeight="1" spans="1:17">
+      <c r="A291" s="4"/>
+      <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
+      <c r="O291" s="4"/>
+      <c r="Q291" s="4"/>
+    </row>
+    <row r="292" customHeight="1" spans="1:17">
+      <c r="A292" s="4"/>
+      <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
+      <c r="O292" s="4"/>
+      <c r="Q292" s="4"/>
+    </row>
+    <row r="293" customHeight="1" spans="1:17">
+      <c r="A293" s="4"/>
+      <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
+      <c r="O293" s="4"/>
+      <c r="Q293" s="4"/>
+    </row>
+    <row r="294" customHeight="1" spans="1:17">
+      <c r="A294" s="4"/>
+      <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
+      <c r="O294" s="4"/>
+      <c r="Q294" s="4"/>
+    </row>
+    <row r="295" customHeight="1" spans="1:17">
+      <c r="A295" s="4"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+      <c r="O295" s="4"/>
+      <c r="Q295" s="4"/>
+    </row>
+    <row r="296" customHeight="1" spans="1:17">
+      <c r="A296" s="4"/>
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+      <c r="O296" s="4"/>
+      <c r="Q296" s="4"/>
+    </row>
+    <row r="297" customHeight="1" spans="1:17">
+      <c r="A297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="O297" s="4"/>
+      <c r="Q297" s="4"/>
+    </row>
+    <row r="298" customHeight="1" spans="1:17">
+      <c r="A298" s="4"/>
+      <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
+      <c r="O298" s="4"/>
+      <c r="Q298" s="4"/>
+    </row>
+    <row r="299" customHeight="1" spans="1:17">
+      <c r="A299" s="4"/>
+      <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
+      <c r="O299" s="4"/>
+      <c r="Q299" s="4"/>
+    </row>
+    <row r="300" customHeight="1" spans="1:17">
+      <c r="A300" s="4"/>
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+      <c r="O300" s="4"/>
+      <c r="Q300" s="4"/>
+    </row>
+    <row r="301" customHeight="1" spans="1:17">
+      <c r="A301" s="4"/>
+      <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
+      <c r="O301" s="4"/>
+      <c r="Q301" s="4"/>
+    </row>
+    <row r="302" customHeight="1" spans="1:17">
+      <c r="A302" s="4"/>
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+      <c r="O302" s="4"/>
+      <c r="Q302" s="4"/>
+    </row>
+    <row r="303" customHeight="1" spans="1:17">
+      <c r="A303" s="4"/>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+      <c r="O303" s="4"/>
+      <c r="Q303" s="4"/>
+    </row>
+    <row r="304" customHeight="1" spans="1:17">
+      <c r="A304" s="4"/>
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+      <c r="O304" s="4"/>
+      <c r="Q304" s="4"/>
+    </row>
+    <row r="305" customHeight="1" spans="1:17">
+      <c r="A305" s="4"/>
+      <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
+      <c r="O305" s="4"/>
+      <c r="Q305" s="4"/>
+    </row>
+    <row r="306" customHeight="1" spans="1:17">
+      <c r="A306" s="4"/>
+      <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
+      <c r="O306" s="4"/>
+      <c r="Q306" s="4"/>
+    </row>
+    <row r="307" customHeight="1" spans="1:17">
+      <c r="A307" s="4"/>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
+      <c r="O307" s="4"/>
+      <c r="Q307" s="4"/>
+    </row>
+    <row r="308" customHeight="1" spans="1:17">
+      <c r="A308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
+      <c r="O308" s="4"/>
+      <c r="Q308" s="4"/>
+    </row>
+    <row r="309" customHeight="1" spans="1:17">
+      <c r="A309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="O309" s="4"/>
+      <c r="Q309" s="4"/>
+    </row>
+    <row r="310" customHeight="1" spans="1:17">
+      <c r="A310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
+      <c r="O310" s="4"/>
+      <c r="Q310" s="4"/>
+    </row>
+    <row r="311" customHeight="1" spans="1:17">
+      <c r="A311" s="4"/>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
+      <c r="O311" s="4"/>
+      <c r="Q311" s="4"/>
+    </row>
+    <row r="312" customHeight="1" spans="1:17">
+      <c r="A312" s="4"/>
+      <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
+      <c r="O312" s="4"/>
+      <c r="Q312" s="4"/>
+    </row>
+    <row r="313" customHeight="1" spans="1:17">
+      <c r="A313" s="4"/>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
+      <c r="O313" s="4"/>
+      <c r="Q313" s="4"/>
+    </row>
+    <row r="314" customHeight="1" spans="1:17">
+      <c r="A314" s="4"/>
+      <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
+      <c r="O314" s="4"/>
+      <c r="Q314" s="4"/>
+    </row>
+    <row r="315" customHeight="1" spans="1:17">
+      <c r="A315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
+      <c r="O315" s="4"/>
+      <c r="Q315" s="4"/>
+    </row>
+    <row r="316" customHeight="1" spans="1:17">
+      <c r="A316" s="4"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
+      <c r="O316" s="4"/>
+      <c r="Q316" s="4"/>
+    </row>
+    <row r="317" customHeight="1" spans="1:17">
+      <c r="A317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="O317" s="4"/>
+      <c r="Q317" s="4"/>
+    </row>
+    <row r="318" customHeight="1" spans="1:17">
+      <c r="A318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="O318" s="4"/>
+      <c r="Q318" s="4"/>
+    </row>
+    <row r="319" customHeight="1" spans="1:17">
+      <c r="A319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="O319" s="4"/>
+      <c r="Q319" s="4"/>
+    </row>
+    <row r="320" customHeight="1" spans="1:17">
+      <c r="A320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="O320" s="4"/>
+      <c r="Q320" s="4"/>
+    </row>
+    <row r="321" customHeight="1" spans="1:17">
+      <c r="A321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="O321" s="4"/>
+      <c r="Q321" s="4"/>
+    </row>
+    <row r="322" customHeight="1" spans="1:17">
+      <c r="A322" s="4"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="O322" s="4"/>
+      <c r="Q322" s="4"/>
+    </row>
+    <row r="323" customHeight="1" spans="1:17">
+      <c r="A323" s="4"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="O323" s="4"/>
+      <c r="Q323" s="4"/>
+    </row>
+    <row r="324" customHeight="1" spans="1:17">
+      <c r="A324" s="4"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
+      <c r="O324" s="4"/>
+      <c r="Q324" s="4"/>
+    </row>
+    <row r="325" customHeight="1" spans="1:17">
+      <c r="A325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="O325" s="4"/>
+      <c r="Q325" s="4"/>
+    </row>
+    <row r="326" customHeight="1" spans="1:17">
+      <c r="A326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+      <c r="O326" s="4"/>
+      <c r="Q326" s="4"/>
+    </row>
+    <row r="327" customHeight="1" spans="1:17">
+      <c r="A327" s="4"/>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
+      <c r="O327" s="4"/>
+      <c r="Q327" s="4"/>
+    </row>
+    <row r="328" customHeight="1" spans="1:17">
+      <c r="A328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="O328" s="4"/>
+      <c r="Q328" s="4"/>
+    </row>
+    <row r="329" customHeight="1" spans="1:17">
+      <c r="A329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="O329" s="4"/>
+      <c r="Q329" s="4"/>
+    </row>
+    <row r="330" customHeight="1" spans="1:17">
+      <c r="A330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
+      <c r="O330" s="4"/>
+      <c r="Q330" s="4"/>
+    </row>
+    <row r="331" customHeight="1" spans="1:17">
+      <c r="A331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
+      <c r="O331" s="4"/>
+      <c r="Q331" s="4"/>
+    </row>
+    <row r="332" customHeight="1" spans="1:17">
+      <c r="A332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
+      <c r="O332" s="4"/>
+      <c r="Q332" s="4"/>
+    </row>
+    <row r="333" customHeight="1" spans="1:17">
+      <c r="A333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
+      <c r="O333" s="4"/>
+      <c r="Q333" s="4"/>
+    </row>
+    <row r="334" customHeight="1" spans="1:17">
+      <c r="A334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
+      <c r="O334" s="4"/>
+      <c r="Q334" s="4"/>
+    </row>
+    <row r="335" customHeight="1" spans="1:17">
+      <c r="A335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
+      <c r="O335" s="4"/>
+      <c r="Q335" s="4"/>
+    </row>
+    <row r="336" customHeight="1" spans="1:17">
+      <c r="A336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="O336" s="4"/>
+      <c r="Q336" s="4"/>
+    </row>
+    <row r="337" customHeight="1" spans="1:17">
+      <c r="A337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+      <c r="O337" s="4"/>
+      <c r="Q337" s="4"/>
+    </row>
+    <row r="338" customHeight="1" spans="1:17">
+      <c r="A338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="O338" s="4"/>
+      <c r="Q338" s="4"/>
+    </row>
+    <row r="339" customHeight="1" spans="1:17">
+      <c r="A339" s="4"/>
+      <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
+      <c r="O339" s="4"/>
+      <c r="Q339" s="4"/>
+    </row>
+    <row r="340" customHeight="1" spans="1:17">
+      <c r="A340" s="4"/>
+      <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
+      <c r="O340" s="4"/>
+      <c r="Q340" s="4"/>
+    </row>
+    <row r="341" customHeight="1" spans="1:17">
+      <c r="A341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
+      <c r="O341" s="4"/>
+      <c r="Q341" s="4"/>
+    </row>
+    <row r="342" customHeight="1" spans="1:17">
+      <c r="A342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
+      <c r="O342" s="4"/>
+      <c r="Q342" s="4"/>
+    </row>
+    <row r="343" customHeight="1" spans="1:17">
+      <c r="A343" s="4"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
+      <c r="O343" s="4"/>
+      <c r="Q343" s="4"/>
+    </row>
+    <row r="344" customHeight="1" spans="1:17">
+      <c r="A344" s="4"/>
+      <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
+      <c r="O344" s="4"/>
+      <c r="Q344" s="4"/>
+    </row>
+    <row r="345" customHeight="1" spans="1:17">
+      <c r="A345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="O345" s="4"/>
+      <c r="Q345" s="4"/>
+    </row>
+    <row r="346" customHeight="1" spans="1:17">
+      <c r="A346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
+      <c r="O346" s="4"/>
+      <c r="Q346" s="4"/>
+    </row>
+    <row r="347" customHeight="1" spans="1:17">
+      <c r="A347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="O347" s="4"/>
+      <c r="Q347" s="4"/>
+    </row>
+    <row r="348" customHeight="1" spans="1:17">
+      <c r="A348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="O348" s="4"/>
+      <c r="Q348" s="4"/>
+    </row>
+    <row r="349" customHeight="1" spans="1:17">
+      <c r="A349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
+      <c r="O349" s="4"/>
+      <c r="Q349" s="4"/>
+    </row>
+    <row r="350" customHeight="1" spans="1:17">
+      <c r="A350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
+      <c r="O350" s="4"/>
+      <c r="Q350" s="4"/>
+    </row>
+    <row r="351" customHeight="1" spans="1:17">
+      <c r="A351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
+      <c r="O351" s="4"/>
+      <c r="Q351" s="4"/>
+    </row>
+    <row r="352" customHeight="1" spans="1:17">
+      <c r="A352" s="4"/>
+      <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
+      <c r="O352" s="4"/>
+      <c r="Q352" s="4"/>
+    </row>
+    <row r="353" customHeight="1" spans="1:17">
+      <c r="A353" s="4"/>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
+      <c r="O353" s="4"/>
+      <c r="Q353" s="4"/>
+    </row>
+    <row r="354" customHeight="1" spans="1:17">
+      <c r="A354" s="4"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
+      <c r="O354" s="4"/>
+      <c r="Q354" s="4"/>
+    </row>
+    <row r="355" customHeight="1" spans="1:17">
+      <c r="A355" s="4"/>
+      <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
+      <c r="O355" s="4"/>
+      <c r="Q355" s="4"/>
+    </row>
+    <row r="356" customHeight="1" spans="1:17">
+      <c r="A356" s="4"/>
+      <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
+      <c r="O356" s="4"/>
+      <c r="Q356" s="4"/>
+    </row>
+    <row r="357" customHeight="1" spans="1:17">
+      <c r="A357" s="4"/>
+      <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
+      <c r="O357" s="4"/>
+      <c r="Q357" s="4"/>
+    </row>
+    <row r="358" customHeight="1" spans="1:17">
+      <c r="A358" s="4"/>
+      <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
+      <c r="O358" s="4"/>
+      <c r="Q358" s="4"/>
+    </row>
+    <row r="359" customHeight="1" spans="1:17">
+      <c r="A359" s="4"/>
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
+      <c r="O359" s="4"/>
+      <c r="Q359" s="4"/>
+    </row>
+    <row r="360" customHeight="1" spans="1:17">
+      <c r="A360" s="4"/>
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
+      <c r="O360" s="4"/>
+      <c r="Q360" s="4"/>
+    </row>
+    <row r="361" customHeight="1" spans="1:17">
+      <c r="A361" s="4"/>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
+      <c r="O361" s="4"/>
+      <c r="Q361" s="4"/>
+    </row>
+    <row r="362" customHeight="1" spans="1:17">
+      <c r="A362" s="4"/>
+      <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
+      <c r="O362" s="4"/>
+      <c r="Q362" s="4"/>
+    </row>
+    <row r="363" customHeight="1" spans="1:17">
+      <c r="A363" s="4"/>
+      <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
+      <c r="O363" s="4"/>
+      <c r="Q363" s="4"/>
+    </row>
+    <row r="364" customHeight="1" spans="1:17">
+      <c r="A364" s="4"/>
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+      <c r="O364" s="4"/>
+      <c r="Q364" s="4"/>
+    </row>
+    <row r="365" customHeight="1" spans="1:17">
+      <c r="A365" s="4"/>
+      <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
+      <c r="O365" s="4"/>
+      <c r="Q365" s="4"/>
+    </row>
+    <row r="366" customHeight="1" spans="1:17">
+      <c r="A366" s="4"/>
+      <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
+      <c r="O366" s="4"/>
+      <c r="Q366" s="4"/>
+    </row>
+    <row r="367" customHeight="1" spans="1:17">
+      <c r="A367" s="4"/>
+      <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
+      <c r="O367" s="4"/>
+      <c r="Q367" s="4"/>
+    </row>
+    <row r="368" customHeight="1" spans="1:17">
+      <c r="A368" s="4"/>
+      <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
+      <c r="O368" s="4"/>
+      <c r="Q368" s="4"/>
+    </row>
+    <row r="369" customHeight="1" spans="1:17">
+      <c r="A369" s="4"/>
+      <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
+      <c r="O369" s="4"/>
+      <c r="Q369" s="4"/>
+    </row>
+    <row r="370" customHeight="1" spans="1:17">
+      <c r="A370" s="4"/>
+      <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
+      <c r="O370" s="4"/>
+      <c r="Q370" s="4"/>
+    </row>
+    <row r="371" customHeight="1" spans="1:17">
+      <c r="A371" s="4"/>
+      <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
+      <c r="O371" s="4"/>
+      <c r="Q371" s="4"/>
+    </row>
+    <row r="372" customHeight="1" spans="1:17">
+      <c r="A372" s="4"/>
+      <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
+      <c r="O372" s="4"/>
+      <c r="Q372" s="4"/>
+    </row>
+    <row r="373" customHeight="1" spans="1:17">
+      <c r="A373" s="4"/>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
+      <c r="O373" s="4"/>
+      <c r="Q373" s="4"/>
+    </row>
+    <row r="374" customHeight="1" spans="1:17">
+      <c r="A374" s="4"/>
+      <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
+      <c r="O374" s="4"/>
+      <c r="Q374" s="4"/>
+    </row>
+    <row r="375" customHeight="1" spans="1:17">
+      <c r="A375" s="4"/>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
+      <c r="O375" s="4"/>
+      <c r="Q375" s="4"/>
+    </row>
+    <row r="376" customHeight="1" spans="1:17">
+      <c r="A376" s="4"/>
+      <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
+      <c r="O376" s="4"/>
+      <c r="Q376" s="4"/>
+    </row>
+    <row r="377" customHeight="1" spans="1:17">
+      <c r="A377" s="4"/>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
+      <c r="O377" s="4"/>
+      <c r="Q377" s="4"/>
+    </row>
+    <row r="378" customHeight="1" spans="1:17">
+      <c r="A378" s="4"/>
+      <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
+      <c r="O378" s="4"/>
+      <c r="Q378" s="4"/>
+    </row>
+    <row r="379" customHeight="1" spans="1:17">
+      <c r="A379" s="4"/>
+      <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
+      <c r="O379" s="4"/>
+      <c r="Q379" s="4"/>
+    </row>
+    <row r="380" customHeight="1" spans="1:17">
+      <c r="A380" s="4"/>
+      <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
+      <c r="O380" s="4"/>
+      <c r="Q380" s="4"/>
+    </row>
+    <row r="381" customHeight="1" spans="1:17">
+      <c r="A381" s="4"/>
+      <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
+      <c r="O381" s="4"/>
+      <c r="Q381" s="4"/>
+    </row>
+    <row r="382" customHeight="1" spans="1:17">
+      <c r="A382" s="4"/>
+      <c r="F382" s="4"/>
+      <c r="G382" s="4"/>
+      <c r="O382" s="4"/>
+      <c r="Q382" s="4"/>
+    </row>
+    <row r="383" customHeight="1" spans="1:17">
+      <c r="A383" s="4"/>
+      <c r="F383" s="4"/>
+      <c r="G383" s="4"/>
+      <c r="O383" s="4"/>
+      <c r="Q383" s="4"/>
+    </row>
+    <row r="384" customHeight="1" spans="1:17">
+      <c r="A384" s="4"/>
+      <c r="F384" s="4"/>
+      <c r="G384" s="4"/>
+      <c r="O384" s="4"/>
+      <c r="Q384" s="4"/>
+    </row>
+    <row r="385" customHeight="1" spans="1:17">
+      <c r="A385" s="4"/>
+      <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
+      <c r="O385" s="4"/>
+      <c r="Q385" s="4"/>
+    </row>
+    <row r="386" customHeight="1" spans="1:17">
+      <c r="A386" s="4"/>
+      <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
+      <c r="O386" s="4"/>
+      <c r="Q386" s="4"/>
+    </row>
+    <row r="387" customHeight="1" spans="1:17">
+      <c r="A387" s="4"/>
+      <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
+      <c r="O387" s="4"/>
+      <c r="Q387" s="4"/>
+    </row>
+    <row r="388" customHeight="1" spans="1:17">
+      <c r="A388" s="4"/>
+      <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
+      <c r="O388" s="4"/>
+      <c r="Q388" s="4"/>
+    </row>
+    <row r="389" customHeight="1" spans="1:17">
+      <c r="A389" s="4"/>
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+      <c r="O389" s="4"/>
+      <c r="Q389" s="4"/>
+    </row>
+    <row r="390" customHeight="1" spans="1:17">
+      <c r="A390" s="4"/>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+      <c r="O390" s="4"/>
+      <c r="Q390" s="4"/>
+    </row>
+    <row r="391" customHeight="1" spans="1:17">
+      <c r="A391" s="4"/>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+      <c r="O391" s="4"/>
+      <c r="Q391" s="4"/>
+    </row>
+    <row r="392" customHeight="1" spans="1:17">
+      <c r="A392" s="4"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+      <c r="O392" s="4"/>
+      <c r="Q392" s="4"/>
+    </row>
+    <row r="393" customHeight="1" spans="1:17">
+      <c r="A393" s="4"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+      <c r="O393" s="4"/>
+      <c r="Q393" s="4"/>
+    </row>
+    <row r="394" customHeight="1" spans="1:17">
+      <c r="A394" s="4"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+      <c r="O394" s="4"/>
+      <c r="Q394" s="4"/>
+    </row>
+    <row r="395" customHeight="1" spans="1:17">
+      <c r="A395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+      <c r="O395" s="4"/>
+      <c r="Q395" s="4"/>
+    </row>
+    <row r="396" customHeight="1" spans="1:17">
+      <c r="A396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+      <c r="O396" s="4"/>
+      <c r="Q396" s="4"/>
+    </row>
+    <row r="397" customHeight="1" spans="1:17">
+      <c r="A397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+      <c r="O397" s="4"/>
+      <c r="Q397" s="4"/>
+    </row>
+    <row r="398" customHeight="1" spans="1:17">
+      <c r="A398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+      <c r="O398" s="4"/>
+      <c r="Q398" s="4"/>
+    </row>
+    <row r="399" customHeight="1" spans="1:17">
+      <c r="A399" s="4"/>
+      <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
+      <c r="O399" s="4"/>
+      <c r="Q399" s="4"/>
+    </row>
+    <row r="400" customHeight="1" spans="1:17">
+      <c r="A400" s="4"/>
+      <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
+      <c r="O400" s="4"/>
+      <c r="Q400" s="4"/>
+    </row>
+    <row r="401" customHeight="1" spans="1:17">
+      <c r="A401" s="4"/>
+      <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
+      <c r="O401" s="4"/>
+      <c r="Q401" s="4"/>
+    </row>
+    <row r="402" customHeight="1" spans="1:17">
+      <c r="A402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+      <c r="O402" s="4"/>
+      <c r="Q402" s="4"/>
+    </row>
+    <row r="403" customHeight="1" spans="1:17">
+      <c r="A403" s="4"/>
+      <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
+      <c r="O403" s="4"/>
+      <c r="Q403" s="4"/>
+    </row>
+    <row r="404" customHeight="1" spans="1:17">
+      <c r="A404" s="4"/>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
+      <c r="O404" s="4"/>
+      <c r="Q404" s="4"/>
+    </row>
+    <row r="405" customHeight="1" spans="1:17">
+      <c r="A405" s="4"/>
+      <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
+      <c r="O405" s="4"/>
+      <c r="Q405" s="4"/>
+    </row>
+    <row r="406" customHeight="1" spans="1:17">
+      <c r="A406" s="4"/>
+      <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
+      <c r="O406" s="4"/>
+      <c r="Q406" s="4"/>
+    </row>
+    <row r="407" customHeight="1" spans="1:17">
+      <c r="A407" s="4"/>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+      <c r="O407" s="4"/>
+      <c r="Q407" s="4"/>
+    </row>
+    <row r="408" customHeight="1" spans="1:17">
+      <c r="A408" s="4"/>
+      <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
+      <c r="O408" s="4"/>
+      <c r="Q408" s="4"/>
+    </row>
+    <row r="409" customHeight="1" spans="1:17">
+      <c r="A409" s="4"/>
+      <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
+      <c r="O409" s="4"/>
+      <c r="Q409" s="4"/>
+    </row>
+    <row r="410" customHeight="1" spans="1:17">
+      <c r="A410" s="4"/>
+      <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
+      <c r="O410" s="4"/>
+      <c r="Q410" s="4"/>
+    </row>
+    <row r="411" customHeight="1" spans="1:17">
+      <c r="A411" s="4"/>
+      <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
+      <c r="O411" s="4"/>
+      <c r="Q411" s="4"/>
+    </row>
+    <row r="412" customHeight="1" spans="1:17">
+      <c r="A412" s="4"/>
+      <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
+      <c r="O412" s="4"/>
+      <c r="Q412" s="4"/>
+    </row>
+    <row r="413" customHeight="1" spans="1:17">
+      <c r="A413" s="4"/>
+      <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
+      <c r="O413" s="4"/>
+      <c r="Q413" s="4"/>
+    </row>
+    <row r="414" customHeight="1" spans="1:17">
+      <c r="A414" s="4"/>
+      <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
+      <c r="O414" s="4"/>
+      <c r="Q414" s="4"/>
+    </row>
+    <row r="415" customHeight="1" spans="1:17">
+      <c r="A415" s="4"/>
+      <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
+      <c r="O415" s="4"/>
+      <c r="Q415" s="4"/>
+    </row>
+    <row r="416" customHeight="1" spans="1:17">
+      <c r="A416" s="4"/>
+      <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
+      <c r="O416" s="4"/>
+      <c r="Q416" s="4"/>
+    </row>
+    <row r="417" customHeight="1" spans="1:17">
+      <c r="A417" s="4"/>
+      <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
+      <c r="O417" s="4"/>
+      <c r="Q417" s="4"/>
+    </row>
+    <row r="418" customHeight="1" spans="1:17">
+      <c r="A418" s="4"/>
+      <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
+      <c r="O418" s="4"/>
+      <c r="Q418" s="4"/>
+    </row>
+    <row r="419" customHeight="1" spans="1:17">
+      <c r="A419" s="4"/>
+      <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
+      <c r="O419" s="4"/>
+      <c r="Q419" s="4"/>
+    </row>
+    <row r="420" customHeight="1" spans="1:17">
+      <c r="A420" s="4"/>
+      <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
+      <c r="O420" s="4"/>
+      <c r="Q420" s="4"/>
+    </row>
+    <row r="421" customHeight="1" spans="1:17">
+      <c r="A421" s="4"/>
+      <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
+      <c r="O421" s="4"/>
+      <c r="Q421" s="4"/>
+    </row>
+    <row r="422" customHeight="1" spans="1:17">
+      <c r="A422" s="4"/>
+      <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
+      <c r="O422" s="4"/>
+      <c r="Q422" s="4"/>
+    </row>
+    <row r="423" customHeight="1" spans="1:17">
+      <c r="A423" s="4"/>
+      <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
+      <c r="O423" s="4"/>
+      <c r="Q423" s="4"/>
+    </row>
+    <row r="424" customHeight="1" spans="1:17">
+      <c r="A424" s="4"/>
+      <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
+      <c r="O424" s="4"/>
+      <c r="Q424" s="4"/>
+    </row>
+    <row r="425" customHeight="1" spans="1:17">
+      <c r="A425" s="4"/>
+      <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
+      <c r="O425" s="4"/>
+      <c r="Q425" s="4"/>
+    </row>
+    <row r="426" customHeight="1" spans="1:17">
+      <c r="A426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+      <c r="O426" s="4"/>
+      <c r="Q426" s="4"/>
+    </row>
+    <row r="427" customHeight="1" spans="1:17">
+      <c r="A427" s="4"/>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+      <c r="O427" s="4"/>
+      <c r="Q427" s="4"/>
+    </row>
+    <row r="428" customHeight="1" spans="1:17">
+      <c r="A428" s="4"/>
+      <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
+      <c r="O428" s="4"/>
+      <c r="Q428" s="4"/>
+    </row>
+    <row r="429" customHeight="1" spans="1:17">
+      <c r="A429" s="4"/>
+      <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
+      <c r="O429" s="4"/>
+      <c r="Q429" s="4"/>
+    </row>
+    <row r="430" customHeight="1" spans="1:17">
+      <c r="A430" s="4"/>
+      <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
+      <c r="O430" s="4"/>
+      <c r="Q430" s="4"/>
+    </row>
+    <row r="431" customHeight="1" spans="1:17">
+      <c r="A431" s="4"/>
+      <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
+      <c r="O431" s="4"/>
+      <c r="Q431" s="4"/>
+    </row>
+    <row r="432" customHeight="1" spans="1:17">
+      <c r="A432" s="4"/>
+      <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
+      <c r="O432" s="4"/>
+      <c r="Q432" s="4"/>
+    </row>
+    <row r="433" customHeight="1" spans="1:17">
+      <c r="A433" s="4"/>
+      <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
+      <c r="O433" s="4"/>
+      <c r="Q433" s="4"/>
+    </row>
+    <row r="434" customHeight="1" spans="1:17">
+      <c r="A434" s="4"/>
+      <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
+      <c r="O434" s="4"/>
+      <c r="Q434" s="4"/>
+    </row>
+    <row r="435" customHeight="1" spans="1:17">
+      <c r="A435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+      <c r="O435" s="4"/>
+      <c r="Q435" s="4"/>
+    </row>
+    <row r="436" customHeight="1" spans="1:17">
+      <c r="A436" s="4"/>
+      <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
+      <c r="O436" s="4"/>
+      <c r="Q436" s="4"/>
+    </row>
+    <row r="437" customHeight="1" spans="1:17">
+      <c r="A437" s="4"/>
+      <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
+      <c r="O437" s="4"/>
+      <c r="Q437" s="4"/>
+    </row>
+    <row r="438" customHeight="1" spans="1:17">
+      <c r="A438" s="4"/>
+      <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
+      <c r="O438" s="4"/>
+      <c r="Q438" s="4"/>
+    </row>
+    <row r="439" customHeight="1" spans="1:17">
+      <c r="A439" s="4"/>
+      <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
+      <c r="O439" s="4"/>
+      <c r="Q439" s="4"/>
+    </row>
+    <row r="440" customHeight="1" spans="1:17">
+      <c r="A440" s="4"/>
+      <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
+      <c r="O440" s="4"/>
+      <c r="Q440" s="4"/>
+    </row>
+    <row r="441" customHeight="1" spans="1:17">
+      <c r="A441" s="4"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
+      <c r="O441" s="4"/>
+      <c r="Q441" s="4"/>
+    </row>
+    <row r="442" customHeight="1" spans="1:17">
+      <c r="A442" s="4"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+      <c r="O442" s="4"/>
+      <c r="Q442" s="4"/>
+    </row>
+    <row r="443" customHeight="1" spans="1:17">
+      <c r="A443" s="4"/>
+      <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
+      <c r="O443" s="4"/>
+      <c r="Q443" s="4"/>
+    </row>
+    <row r="444" customHeight="1" spans="1:17">
+      <c r="A444" s="4"/>
+      <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
+      <c r="O444" s="4"/>
+      <c r="Q444" s="4"/>
+    </row>
+    <row r="445" customHeight="1" spans="1:17">
+      <c r="A445" s="4"/>
+      <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
+      <c r="O445" s="4"/>
+      <c r="Q445" s="4"/>
+    </row>
+    <row r="446" customHeight="1" spans="1:17">
+      <c r="A446" s="4"/>
+      <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
+      <c r="O446" s="4"/>
+      <c r="Q446" s="4"/>
+    </row>
+    <row r="447" customHeight="1" spans="1:17">
+      <c r="A447" s="4"/>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
+      <c r="O447" s="4"/>
+      <c r="Q447" s="4"/>
+    </row>
+    <row r="448" customHeight="1" spans="1:17">
+      <c r="A448" s="4"/>
+      <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
+      <c r="O448" s="4"/>
+      <c r="Q448" s="4"/>
+    </row>
+    <row r="449" customHeight="1" spans="1:17">
+      <c r="A449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="O449" s="4"/>
+      <c r="Q449" s="4"/>
+    </row>
+    <row r="450" customHeight="1" spans="1:17">
+      <c r="A450" s="4"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
+      <c r="O450" s="4"/>
+      <c r="Q450" s="4"/>
+    </row>
+    <row r="451" customHeight="1" spans="1:17">
+      <c r="A451" s="4"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
+      <c r="O451" s="4"/>
+      <c r="Q451" s="4"/>
+    </row>
+    <row r="452" customHeight="1" spans="1:17">
+      <c r="A452" s="4"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
+      <c r="O452" s="4"/>
+      <c r="Q452" s="4"/>
+    </row>
+    <row r="453" customHeight="1" spans="1:17">
+      <c r="A453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+      <c r="O453" s="4"/>
+      <c r="Q453" s="4"/>
+    </row>
+    <row r="454" customHeight="1" spans="1:17">
+      <c r="A454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="O454" s="4"/>
+      <c r="Q454" s="4"/>
+    </row>
+    <row r="455" customHeight="1" spans="1:17">
+      <c r="A455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+      <c r="O455" s="4"/>
+      <c r="Q455" s="4"/>
+    </row>
+    <row r="456" customHeight="1" spans="1:17">
+      <c r="A456" s="4"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
+      <c r="O456" s="4"/>
+      <c r="Q456" s="4"/>
+    </row>
+    <row r="457" customHeight="1" spans="1:17">
+      <c r="A457" s="4"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
+      <c r="O457" s="4"/>
+      <c r="Q457" s="4"/>
+    </row>
+    <row r="458" customHeight="1" spans="1:17">
+      <c r="A458" s="4"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
+      <c r="O458" s="4"/>
+      <c r="Q458" s="4"/>
+    </row>
+    <row r="459" customHeight="1" spans="1:17">
+      <c r="A459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="O459" s="4"/>
+      <c r="Q459" s="4"/>
+    </row>
+    <row r="460" customHeight="1" spans="1:17">
+      <c r="A460" s="4"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="O460" s="4"/>
+      <c r="Q460" s="4"/>
+    </row>
+    <row r="461" customHeight="1" spans="1:17">
+      <c r="A461" s="4"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="O461" s="4"/>
+      <c r="Q461" s="4"/>
+    </row>
+    <row r="462" customHeight="1" spans="1:17">
+      <c r="A462" s="4"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="O462" s="4"/>
+      <c r="Q462" s="4"/>
+    </row>
+    <row r="463" customHeight="1" spans="1:17">
+      <c r="A463" s="4"/>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
+      <c r="O463" s="4"/>
+      <c r="Q463" s="4"/>
+    </row>
+    <row r="464" customHeight="1" spans="1:17">
+      <c r="A464" s="4"/>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
+      <c r="O464" s="4"/>
+      <c r="Q464" s="4"/>
+    </row>
+    <row r="465" customHeight="1" spans="1:17">
+      <c r="A465" s="4"/>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
+      <c r="O465" s="4"/>
+      <c r="Q465" s="4"/>
+    </row>
+    <row r="466" customHeight="1" spans="1:17">
+      <c r="A466" s="4"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
+      <c r="O466" s="4"/>
+      <c r="Q466" s="4"/>
+    </row>
+    <row r="467" customHeight="1" spans="1:17">
+      <c r="A467" s="4"/>
+      <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
+      <c r="O467" s="4"/>
+      <c r="Q467" s="4"/>
+    </row>
+    <row r="468" customHeight="1" spans="1:17">
+      <c r="A468" s="4"/>
+      <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
+      <c r="O468" s="4"/>
+      <c r="Q468" s="4"/>
+    </row>
+    <row r="469" customHeight="1" spans="1:17">
+      <c r="A469" s="4"/>
+      <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
+      <c r="O469" s="4"/>
+      <c r="Q469" s="4"/>
+    </row>
+    <row r="470" customHeight="1" spans="1:17">
+      <c r="A470" s="4"/>
+      <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
+      <c r="O470" s="4"/>
+      <c r="Q470" s="4"/>
+    </row>
+    <row r="471" customHeight="1" spans="1:17">
+      <c r="A471" s="4"/>
+      <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
+      <c r="O471" s="4"/>
+      <c r="Q471" s="4"/>
+    </row>
+    <row r="472" customHeight="1" spans="1:17">
+      <c r="A472" s="4"/>
+      <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
+      <c r="O472" s="4"/>
+      <c r="Q472" s="4"/>
+    </row>
+    <row r="473" customHeight="1" spans="1:17">
+      <c r="A473" s="4"/>
+      <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
+      <c r="O473" s="4"/>
+      <c r="Q473" s="4"/>
+    </row>
+    <row r="474" customHeight="1" spans="1:17">
+      <c r="A474" s="4"/>
+      <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
+      <c r="O474" s="4"/>
+      <c r="Q474" s="4"/>
+    </row>
+    <row r="475" customHeight="1" spans="1:17">
+      <c r="A475" s="4"/>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
+      <c r="O475" s="4"/>
+      <c r="Q475" s="4"/>
+    </row>
+    <row r="476" customHeight="1" spans="1:17">
+      <c r="A476" s="4"/>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
+      <c r="O476" s="4"/>
+      <c r="Q476" s="4"/>
+    </row>
+    <row r="477" customHeight="1" spans="1:17">
+      <c r="A477" s="4"/>
+      <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
+      <c r="O477" s="4"/>
+      <c r="Q477" s="4"/>
+    </row>
+    <row r="478" customHeight="1" spans="1:17">
+      <c r="A478" s="4"/>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
+      <c r="O478" s="4"/>
+      <c r="Q478" s="4"/>
+    </row>
+    <row r="479" customHeight="1" spans="1:17">
+      <c r="A479" s="4"/>
+      <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
+      <c r="O479" s="4"/>
+      <c r="Q479" s="4"/>
+    </row>
+    <row r="480" customHeight="1" spans="1:17">
+      <c r="A480" s="4"/>
+      <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
+      <c r="O480" s="4"/>
+      <c r="Q480" s="4"/>
+    </row>
+    <row r="481" customHeight="1" spans="1:17">
+      <c r="A481" s="4"/>
+      <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
+      <c r="O481" s="4"/>
+      <c r="Q481" s="4"/>
+    </row>
+    <row r="482" customHeight="1" spans="1:17">
+      <c r="A482" s="4"/>
+      <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
+      <c r="O482" s="4"/>
+      <c r="Q482" s="4"/>
+    </row>
+    <row r="483" customHeight="1" spans="1:17">
+      <c r="A483" s="4"/>
+      <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
+      <c r="O483" s="4"/>
+      <c r="Q483" s="4"/>
+    </row>
+    <row r="484" customHeight="1" spans="1:17">
+      <c r="A484" s="4"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
+      <c r="O484" s="4"/>
+      <c r="Q484" s="4"/>
+    </row>
+    <row r="485" customHeight="1" spans="1:17">
+      <c r="A485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+      <c r="O485" s="4"/>
+      <c r="Q485" s="4"/>
+    </row>
+    <row r="486" customHeight="1" spans="1:17">
+      <c r="A486" s="4"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
+      <c r="O486" s="4"/>
+      <c r="Q486" s="4"/>
+    </row>
+    <row r="487" customHeight="1" spans="1:17">
+      <c r="A487" s="4"/>
+      <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
+      <c r="O487" s="4"/>
+      <c r="Q487" s="4"/>
+    </row>
+    <row r="488" customHeight="1" spans="1:17">
+      <c r="A488" s="4"/>
+      <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
+      <c r="O488" s="4"/>
+      <c r="Q488" s="4"/>
+    </row>
+    <row r="489" customHeight="1" spans="1:17">
+      <c r="A489" s="4"/>
+      <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
+      <c r="O489" s="4"/>
+      <c r="Q489" s="4"/>
+    </row>
+    <row r="490" customHeight="1" spans="1:17">
+      <c r="A490" s="4"/>
+      <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
+      <c r="O490" s="4"/>
+      <c r="Q490" s="4"/>
+    </row>
+    <row r="491" customHeight="1" spans="1:17">
+      <c r="A491" s="4"/>
+      <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
+      <c r="O491" s="4"/>
+      <c r="Q491" s="4"/>
+    </row>
+    <row r="492" customHeight="1" spans="1:17">
+      <c r="A492" s="4"/>
+      <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
+      <c r="O492" s="4"/>
+      <c r="Q492" s="4"/>
+    </row>
+    <row r="493" customHeight="1" spans="1:17">
+      <c r="A493" s="4"/>
+      <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
+      <c r="O493" s="4"/>
+      <c r="Q493" s="4"/>
+    </row>
+    <row r="494" customHeight="1" spans="1:17">
+      <c r="A494" s="4"/>
+      <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
+      <c r="O494" s="4"/>
+      <c r="Q494" s="4"/>
+    </row>
+    <row r="495" customHeight="1" spans="1:17">
+      <c r="A495" s="4"/>
+      <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
+      <c r="O495" s="4"/>
+      <c r="Q495" s="4"/>
+    </row>
+    <row r="496" customHeight="1" spans="1:17">
+      <c r="A496" s="4"/>
+      <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
+      <c r="O496" s="4"/>
+      <c r="Q496" s="4"/>
+    </row>
+    <row r="497" customHeight="1" spans="1:17">
+      <c r="A497" s="4"/>
+      <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
+      <c r="O497" s="4"/>
+      <c r="Q497" s="4"/>
+    </row>
+    <row r="498" customHeight="1" spans="1:17">
+      <c r="A498" s="4"/>
+      <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
+      <c r="O498" s="4"/>
+      <c r="Q498" s="4"/>
+    </row>
+    <row r="499" customHeight="1" spans="1:17">
+      <c r="A499" s="4"/>
+      <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
+      <c r="O499" s="4"/>
+      <c r="Q499" s="4"/>
+    </row>
+    <row r="500" customHeight="1" spans="1:17">
+      <c r="A500" s="4"/>
+      <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
+      <c r="O500" s="4"/>
+      <c r="Q500" s="4"/>
+    </row>
+    <row r="501" customHeight="1" spans="1:17">
+      <c r="A501" s="4"/>
+      <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
+      <c r="O501" s="4"/>
+      <c r="Q501" s="4"/>
+    </row>
+    <row r="502" customHeight="1" spans="1:17">
+      <c r="A502" s="4"/>
+      <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
+      <c r="O502" s="4"/>
+      <c r="Q502" s="4"/>
+    </row>
+    <row r="503" customHeight="1" spans="1:17">
+      <c r="A503" s="4"/>
+      <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
+      <c r="O503" s="4"/>
+      <c r="Q503" s="4"/>
+    </row>
+    <row r="504" customHeight="1" spans="1:17">
+      <c r="A504" s="4"/>
+      <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
+      <c r="O504" s="4"/>
+      <c r="Q504" s="4"/>
+    </row>
+    <row r="505" customHeight="1" spans="1:17">
+      <c r="A505" s="4"/>
+      <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
+      <c r="O505" s="4"/>
+      <c r="Q505" s="4"/>
+    </row>
+    <row r="506" customHeight="1" spans="1:17">
+      <c r="A506" s="4"/>
+      <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
+      <c r="O506" s="4"/>
+      <c r="Q506" s="4"/>
+    </row>
+    <row r="507" customHeight="1" spans="1:17">
+      <c r="A507" s="4"/>
+      <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
+      <c r="O507" s="4"/>
+      <c r="Q507" s="4"/>
+    </row>
+    <row r="508" customHeight="1" spans="1:17">
+      <c r="A508" s="4"/>
+      <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
+      <c r="O508" s="4"/>
+      <c r="Q508" s="4"/>
+    </row>
+    <row r="509" customHeight="1" spans="1:17">
+      <c r="A509" s="4"/>
+      <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
+      <c r="O509" s="4"/>
+      <c r="Q509" s="4"/>
+    </row>
+    <row r="510" customHeight="1" spans="1:17">
+      <c r="A510" s="4"/>
+      <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
+      <c r="O510" s="4"/>
+      <c r="Q510" s="4"/>
+    </row>
+    <row r="511" customHeight="1" spans="1:17">
+      <c r="A511" s="4"/>
+      <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
+      <c r="O511" s="4"/>
+      <c r="Q511" s="4"/>
+    </row>
+    <row r="512" customHeight="1" spans="1:17">
+      <c r="A512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
+      <c r="O512" s="4"/>
+      <c r="Q512" s="4"/>
+    </row>
+    <row r="513" customHeight="1" spans="1:17">
+      <c r="A513" s="4"/>
+      <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
+      <c r="O513" s="4"/>
+      <c r="Q513" s="4"/>
+    </row>
+    <row r="514" customHeight="1" spans="1:17">
+      <c r="A514" s="4"/>
+      <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
+      <c r="O514" s="4"/>
+      <c r="Q514" s="4"/>
+    </row>
+    <row r="515" customHeight="1" spans="1:17">
+      <c r="A515" s="4"/>
+      <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
+      <c r="O515" s="4"/>
+      <c r="Q515" s="4"/>
+    </row>
+    <row r="516" customHeight="1" spans="1:17">
+      <c r="A516" s="4"/>
+      <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
+      <c r="O516" s="4"/>
+      <c r="Q516" s="4"/>
+    </row>
+    <row r="517" customHeight="1" spans="1:17">
+      <c r="A517" s="4"/>
+      <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
+      <c r="O517" s="4"/>
+      <c r="Q517" s="4"/>
+    </row>
+    <row r="518" customHeight="1" spans="1:17">
+      <c r="A518" s="4"/>
+      <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
+      <c r="O518" s="4"/>
+      <c r="Q518" s="4"/>
+    </row>
+    <row r="519" customHeight="1" spans="1:17">
+      <c r="A519" s="4"/>
+      <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
+      <c r="O519" s="4"/>
+      <c r="Q519" s="4"/>
+    </row>
+    <row r="520" customHeight="1" spans="1:17">
+      <c r="A520" s="4"/>
+      <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
+      <c r="O520" s="4"/>
+      <c r="Q520" s="4"/>
+    </row>
+    <row r="521" customHeight="1" spans="1:17">
+      <c r="A521" s="4"/>
+      <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
+      <c r="O521" s="4"/>
+      <c r="Q521" s="4"/>
+    </row>
+    <row r="522" customHeight="1" spans="1:17">
+      <c r="A522" s="4"/>
+      <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
+      <c r="O522" s="4"/>
+      <c r="Q522" s="4"/>
+    </row>
+    <row r="523" customHeight="1" spans="1:17">
+      <c r="A523" s="4"/>
+      <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
+      <c r="O523" s="4"/>
+      <c r="Q523" s="4"/>
+    </row>
+    <row r="524" customHeight="1" spans="1:17">
+      <c r="A524" s="4"/>
+      <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
+      <c r="O524" s="4"/>
+      <c r="Q524" s="4"/>
+    </row>
+    <row r="525" customHeight="1" spans="1:17">
+      <c r="A525" s="4"/>
+      <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
+      <c r="O525" s="4"/>
+      <c r="Q525" s="4"/>
+    </row>
+    <row r="526" customHeight="1" spans="1:17">
+      <c r="A526" s="4"/>
+      <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
+      <c r="O526" s="4"/>
+      <c r="Q526" s="4"/>
+    </row>
+    <row r="527" customHeight="1" spans="1:17">
+      <c r="A527" s="4"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+      <c r="O527" s="4"/>
+      <c r="Q527" s="4"/>
+    </row>
+    <row r="528" customHeight="1" spans="1:17">
+      <c r="A528" s="4"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+      <c r="O528" s="4"/>
+      <c r="Q528" s="4"/>
+    </row>
+    <row r="529" customHeight="1" spans="1:17">
+      <c r="A529" s="4"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+      <c r="O529" s="4"/>
+      <c r="Q529" s="4"/>
+    </row>
+    <row r="530" customHeight="1" spans="1:17">
+      <c r="A530" s="4"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+      <c r="O530" s="4"/>
+      <c r="Q530" s="4"/>
+    </row>
+    <row r="531" customHeight="1" spans="1:17">
+      <c r="A531" s="4"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+      <c r="O531" s="4"/>
+      <c r="Q531" s="4"/>
+    </row>
+    <row r="532" customHeight="1" spans="1:17">
+      <c r="A532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+      <c r="O532" s="4"/>
+      <c r="Q532" s="4"/>
+    </row>
+    <row r="533" customHeight="1" spans="1:17">
+      <c r="A533" s="4"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+      <c r="O533" s="4"/>
+      <c r="Q533" s="4"/>
+    </row>
+    <row r="534" customHeight="1" spans="1:17">
+      <c r="A534" s="4"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+      <c r="O534" s="4"/>
+      <c r="Q534" s="4"/>
+    </row>
+    <row r="535" customHeight="1" spans="1:17">
+      <c r="A535" s="4"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+      <c r="O535" s="4"/>
+      <c r="Q535" s="4"/>
+    </row>
+    <row r="536" customHeight="1" spans="1:17">
+      <c r="A536" s="4"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+      <c r="O536" s="4"/>
+      <c r="Q536" s="4"/>
+    </row>
+    <row r="537" customHeight="1" spans="1:17">
+      <c r="A537" s="4"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+      <c r="O537" s="4"/>
+      <c r="Q537" s="4"/>
+    </row>
+    <row r="538" customHeight="1" spans="1:17">
+      <c r="A538" s="4"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+      <c r="O538" s="4"/>
+      <c r="Q538" s="4"/>
+    </row>
+    <row r="539" customHeight="1" spans="1:17">
+      <c r="A539" s="4"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+      <c r="O539" s="4"/>
+      <c r="Q539" s="4"/>
+    </row>
+    <row r="540" customHeight="1" spans="1:17">
+      <c r="A540" s="4"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="O540" s="4"/>
+      <c r="Q540" s="4"/>
+    </row>
+    <row r="541" customHeight="1" spans="1:17">
+      <c r="A541" s="4"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+      <c r="O541" s="4"/>
+      <c r="Q541" s="4"/>
+    </row>
+    <row r="542" customHeight="1" spans="1:17">
+      <c r="A542" s="4"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+      <c r="O542" s="4"/>
+      <c r="Q542" s="4"/>
+    </row>
+    <row r="543" customHeight="1" spans="1:17">
+      <c r="A543" s="4"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+      <c r="O543" s="4"/>
+      <c r="Q543" s="4"/>
+    </row>
+    <row r="544" customHeight="1" spans="1:17">
+      <c r="A544" s="4"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+      <c r="O544" s="4"/>
+      <c r="Q544" s="4"/>
+    </row>
+    <row r="545" customHeight="1" spans="1:17">
+      <c r="A545" s="4"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+      <c r="O545" s="4"/>
+      <c r="Q545" s="4"/>
+    </row>
+    <row r="546" customHeight="1" spans="1:17">
+      <c r="A546" s="4"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+      <c r="O546" s="4"/>
+      <c r="Q546" s="4"/>
+    </row>
+    <row r="547" customHeight="1" spans="1:17">
+      <c r="A547" s="4"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+      <c r="O547" s="4"/>
+      <c r="Q547" s="4"/>
+    </row>
+    <row r="548" customHeight="1" spans="1:17">
+      <c r="A548" s="4"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+      <c r="O548" s="4"/>
+      <c r="Q548" s="4"/>
+    </row>
+    <row r="549" customHeight="1" spans="1:17">
+      <c r="A549" s="4"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+      <c r="O549" s="4"/>
+      <c r="Q549" s="4"/>
+    </row>
+    <row r="550" customHeight="1" spans="1:17">
+      <c r="A550" s="4"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+      <c r="O550" s="4"/>
+      <c r="Q550" s="4"/>
+    </row>
+    <row r="551" customHeight="1" spans="1:17">
+      <c r="A551" s="4"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+      <c r="O551" s="4"/>
+      <c r="Q551" s="4"/>
+    </row>
+    <row r="552" customHeight="1" spans="1:17">
+      <c r="A552" s="4"/>
+      <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
+      <c r="O552" s="4"/>
+      <c r="Q552" s="4"/>
+    </row>
+    <row r="553" customHeight="1" spans="1:17">
+      <c r="A553" s="4"/>
+      <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
+      <c r="O553" s="4"/>
+      <c r="Q553" s="4"/>
+    </row>
+    <row r="554" customHeight="1" spans="1:17">
+      <c r="A554" s="4"/>
+      <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
+      <c r="O554" s="4"/>
+      <c r="Q554" s="4"/>
+    </row>
+    <row r="555" customHeight="1" spans="1:17">
+      <c r="A555" s="4"/>
+      <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
+      <c r="O555" s="4"/>
+      <c r="Q555" s="4"/>
+    </row>
+    <row r="556" customHeight="1" spans="1:17">
+      <c r="A556" s="4"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+      <c r="O556" s="4"/>
+      <c r="Q556" s="4"/>
+    </row>
+    <row r="557" customHeight="1" spans="1:17">
+      <c r="A557" s="4"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+      <c r="O557" s="4"/>
+      <c r="Q557" s="4"/>
+    </row>
+    <row r="558" customHeight="1" spans="1:17">
+      <c r="A558" s="4"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+      <c r="O558" s="4"/>
+      <c r="Q558" s="4"/>
+    </row>
+    <row r="559" customHeight="1" spans="1:17">
+      <c r="A559" s="4"/>
+      <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
+      <c r="O559" s="4"/>
+      <c r="Q559" s="4"/>
+    </row>
+    <row r="560" customHeight="1" spans="1:17">
+      <c r="A560" s="4"/>
+      <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
+      <c r="O560" s="4"/>
+      <c r="Q560" s="4"/>
+    </row>
+    <row r="561" customHeight="1" spans="1:17">
+      <c r="A561" s="4"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
+      <c r="O561" s="4"/>
+      <c r="Q561" s="4"/>
+    </row>
+    <row r="562" customHeight="1" spans="1:17">
+      <c r="A562" s="4"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
+      <c r="O562" s="4"/>
+      <c r="Q562" s="4"/>
+    </row>
+    <row r="563" customHeight="1" spans="1:17">
+      <c r="A563" s="4"/>
+      <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
+      <c r="O563" s="4"/>
+      <c r="Q563" s="4"/>
+    </row>
+    <row r="564" customHeight="1" spans="1:17">
+      <c r="A564" s="4"/>
+      <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
+      <c r="O564" s="4"/>
+      <c r="Q564" s="4"/>
+    </row>
+    <row r="565" customHeight="1" spans="1:17">
+      <c r="A565" s="4"/>
+      <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
+      <c r="O565" s="4"/>
+      <c r="Q565" s="4"/>
+    </row>
+    <row r="566" customHeight="1" spans="1:17">
+      <c r="A566" s="4"/>
+      <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
+      <c r="O566" s="4"/>
+      <c r="Q566" s="4"/>
+    </row>
+    <row r="567" customHeight="1" spans="1:17">
+      <c r="A567" s="4"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
+      <c r="O567" s="4"/>
+      <c r="Q567" s="4"/>
+    </row>
+    <row r="568" customHeight="1" spans="1:17">
+      <c r="A568" s="4"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
+      <c r="O568" s="4"/>
+      <c r="Q568" s="4"/>
+    </row>
+    <row r="569" customHeight="1" spans="1:17">
+      <c r="A569" s="4"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+      <c r="O569" s="4"/>
+      <c r="Q569" s="4"/>
+    </row>
+    <row r="570" customHeight="1" spans="1:17">
+      <c r="A570" s="4"/>
+      <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
+      <c r="O570" s="4"/>
+      <c r="Q570" s="4"/>
+    </row>
+    <row r="571" customHeight="1" spans="1:17">
+      <c r="A571" s="4"/>
+      <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
+      <c r="O571" s="4"/>
+      <c r="Q571" s="4"/>
+    </row>
+    <row r="572" customHeight="1" spans="1:17">
+      <c r="A572" s="4"/>
+      <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
+      <c r="O572" s="4"/>
+      <c r="Q572" s="4"/>
+    </row>
+    <row r="573" customHeight="1" spans="1:17">
+      <c r="A573" s="4"/>
+      <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
+      <c r="O573" s="4"/>
+      <c r="Q573" s="4"/>
+    </row>
+    <row r="574" customHeight="1" spans="1:17">
+      <c r="A574" s="4"/>
+      <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
+      <c r="O574" s="4"/>
+      <c r="Q574" s="4"/>
+    </row>
+    <row r="575" customHeight="1" spans="1:17">
+      <c r="A575" s="4"/>
+      <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
+      <c r="O575" s="4"/>
+      <c r="Q575" s="4"/>
+    </row>
+    <row r="576" customHeight="1" spans="1:17">
+      <c r="A576" s="4"/>
+      <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
+      <c r="O576" s="4"/>
+      <c r="Q576" s="4"/>
+    </row>
+    <row r="577" customHeight="1" spans="1:17">
+      <c r="A577" s="4"/>
+      <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
+      <c r="O577" s="4"/>
+      <c r="Q577" s="4"/>
+    </row>
+    <row r="578" customHeight="1" spans="1:17">
+      <c r="A578" s="4"/>
+      <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
+      <c r="O578" s="4"/>
+      <c r="Q578" s="4"/>
+    </row>
+    <row r="579" customHeight="1" spans="1:17">
+      <c r="A579" s="4"/>
+      <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
+      <c r="O579" s="4"/>
+      <c r="Q579" s="4"/>
+    </row>
+    <row r="580" customHeight="1" spans="1:17">
+      <c r="A580" s="4"/>
+      <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
+      <c r="O580" s="4"/>
+      <c r="Q580" s="4"/>
+    </row>
+    <row r="581" customHeight="1" spans="1:17">
+      <c r="A581" s="4"/>
+      <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
+      <c r="O581" s="4"/>
+      <c r="Q581" s="4"/>
+    </row>
+    <row r="582" customHeight="1" spans="1:17">
+      <c r="A582" s="4"/>
+      <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
+      <c r="O582" s="4"/>
+      <c r="Q582" s="4"/>
+    </row>
+    <row r="583" customHeight="1" spans="1:17">
+      <c r="A583" s="4"/>
+      <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
+      <c r="O583" s="4"/>
+      <c r="Q583" s="4"/>
+    </row>
+    <row r="584" customHeight="1" spans="1:17">
+      <c r="A584" s="4"/>
+      <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
+      <c r="O584" s="4"/>
+      <c r="Q584" s="4"/>
+    </row>
+    <row r="585" customHeight="1" spans="1:17">
+      <c r="A585" s="4"/>
+      <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
+      <c r="O585" s="4"/>
+      <c r="Q585" s="4"/>
+    </row>
+    <row r="586" customHeight="1" spans="1:17">
+      <c r="A586" s="4"/>
+      <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
+      <c r="O586" s="4"/>
+      <c r="Q586" s="4"/>
+    </row>
+    <row r="587" customHeight="1" spans="1:17">
+      <c r="A587" s="4"/>
+      <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
+      <c r="O587" s="4"/>
+      <c r="Q587" s="4"/>
+    </row>
+    <row r="588" customHeight="1" spans="1:17">
+      <c r="A588" s="4"/>
+      <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
+      <c r="O588" s="4"/>
+      <c r="Q588" s="4"/>
+    </row>
+    <row r="589" customHeight="1" spans="1:17">
+      <c r="A589" s="4"/>
+      <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
+      <c r="O589" s="4"/>
+      <c r="Q589" s="4"/>
+    </row>
+    <row r="590" customHeight="1" spans="1:17">
+      <c r="A590" s="4"/>
+      <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
+      <c r="O590" s="4"/>
+      <c r="Q590" s="4"/>
+    </row>
+    <row r="591" customHeight="1" spans="1:17">
+      <c r="A591" s="4"/>
+      <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
+      <c r="O591" s="4"/>
+      <c r="Q591" s="4"/>
+    </row>
+    <row r="592" customHeight="1" spans="1:17">
+      <c r="A592" s="4"/>
+      <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
+      <c r="O592" s="4"/>
+      <c r="Q592" s="4"/>
+    </row>
+    <row r="593" customHeight="1" spans="1:17">
+      <c r="A593" s="4"/>
+      <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
+      <c r="O593" s="4"/>
+      <c r="Q593" s="4"/>
+    </row>
+    <row r="594" customHeight="1" spans="1:17">
+      <c r="A594" s="4"/>
+      <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
+      <c r="O594" s="4"/>
+      <c r="Q594" s="4"/>
+    </row>
+    <row r="595" customHeight="1" spans="1:17">
+      <c r="A595" s="4"/>
+      <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
+      <c r="O595" s="4"/>
+      <c r="Q595" s="4"/>
+    </row>
+    <row r="596" customHeight="1" spans="1:17">
+      <c r="A596" s="4"/>
+      <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
+      <c r="O596" s="4"/>
+      <c r="Q596" s="4"/>
+    </row>
+    <row r="597" customHeight="1" spans="1:17">
+      <c r="A597" s="4"/>
+      <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
+      <c r="O597" s="4"/>
+      <c r="Q597" s="4"/>
+    </row>
+    <row r="598" customHeight="1" spans="1:17">
+      <c r="A598" s="4"/>
+      <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
+      <c r="O598" s="4"/>
+      <c r="Q598" s="4"/>
+    </row>
+    <row r="599" customHeight="1" spans="1:17">
+      <c r="A599" s="4"/>
+      <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
+      <c r="O599" s="4"/>
+      <c r="Q599" s="4"/>
+    </row>
+    <row r="600" customHeight="1" spans="1:17">
+      <c r="A600" s="4"/>
+      <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
+      <c r="O600" s="4"/>
+      <c r="Q600" s="4"/>
+    </row>
+    <row r="601" customHeight="1" spans="1:17">
+      <c r="A601" s="4"/>
+      <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
+      <c r="O601" s="4"/>
+      <c r="Q601" s="4"/>
+    </row>
+    <row r="602" customHeight="1" spans="1:17">
+      <c r="A602" s="4"/>
+      <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
+      <c r="O602" s="4"/>
+      <c r="Q602" s="4"/>
+    </row>
+    <row r="603" customHeight="1" spans="1:17">
+      <c r="A603" s="4"/>
+      <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
+      <c r="O603" s="4"/>
+      <c r="Q603" s="4"/>
+    </row>
+    <row r="604" customHeight="1" spans="1:17">
+      <c r="A604" s="4"/>
+      <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
+      <c r="O604" s="4"/>
+      <c r="Q604" s="4"/>
+    </row>
+    <row r="605" customHeight="1" spans="1:17">
+      <c r="A605" s="4"/>
+      <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
+      <c r="O605" s="4"/>
+      <c r="Q605" s="4"/>
+    </row>
+    <row r="606" customHeight="1" spans="1:17">
+      <c r="A606" s="4"/>
+      <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
+      <c r="O606" s="4"/>
+      <c r="Q606" s="4"/>
+    </row>
+    <row r="607" customHeight="1" spans="1:17">
+      <c r="A607" s="4"/>
+      <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
+      <c r="O607" s="4"/>
+      <c r="Q607" s="4"/>
+    </row>
+    <row r="608" customHeight="1" spans="1:17">
+      <c r="A608" s="4"/>
+      <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
+      <c r="O608" s="4"/>
+      <c r="Q608" s="4"/>
+    </row>
+    <row r="609" customHeight="1" spans="1:17">
+      <c r="A609" s="4"/>
+      <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
+      <c r="O609" s="4"/>
+      <c r="Q609" s="4"/>
+    </row>
+    <row r="610" customHeight="1" spans="1:17">
+      <c r="A610" s="4"/>
+      <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
+      <c r="O610" s="4"/>
+      <c r="Q610" s="4"/>
+    </row>
+    <row r="611" customHeight="1" spans="1:17">
+      <c r="A611" s="4"/>
+      <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
+      <c r="O611" s="4"/>
+      <c r="Q611" s="4"/>
+    </row>
+    <row r="612" customHeight="1" spans="1:17">
+      <c r="A612" s="4"/>
+      <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
+      <c r="O612" s="4"/>
+      <c r="Q612" s="4"/>
+    </row>
+    <row r="613" customHeight="1" spans="1:17">
+      <c r="A613" s="4"/>
+      <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
+      <c r="O613" s="4"/>
+      <c r="Q613" s="4"/>
+    </row>
+    <row r="614" customHeight="1" spans="1:17">
+      <c r="A614" s="4"/>
+      <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
+      <c r="O614" s="4"/>
+      <c r="Q614" s="4"/>
+    </row>
+    <row r="615" customHeight="1" spans="1:17">
+      <c r="A615" s="4"/>
+      <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
+      <c r="O615" s="4"/>
+      <c r="Q615" s="4"/>
+    </row>
+    <row r="616" customHeight="1" spans="1:17">
+      <c r="A616" s="4"/>
+      <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
+      <c r="O616" s="4"/>
+      <c r="Q616" s="4"/>
+    </row>
+    <row r="617" customHeight="1" spans="1:17">
+      <c r="A617" s="4"/>
+      <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
+      <c r="O617" s="4"/>
+      <c r="Q617" s="4"/>
+    </row>
+    <row r="618" customHeight="1" spans="1:17">
+      <c r="A618" s="4"/>
+      <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
+      <c r="O618" s="4"/>
+      <c r="Q618" s="4"/>
+    </row>
+    <row r="619" customHeight="1" spans="1:17">
+      <c r="A619" s="4"/>
+      <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
+      <c r="O619" s="4"/>
+      <c r="Q619" s="4"/>
+    </row>
+    <row r="620" customHeight="1" spans="1:17">
+      <c r="A620" s="4"/>
+      <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
+      <c r="O620" s="4"/>
+      <c r="Q620" s="4"/>
+    </row>
+    <row r="621" customHeight="1" spans="1:17">
+      <c r="A621" s="4"/>
+      <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
+      <c r="O621" s="4"/>
+      <c r="Q621" s="4"/>
+    </row>
+    <row r="622" customHeight="1" spans="1:17">
+      <c r="A622" s="4"/>
+      <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
+      <c r="O622" s="4"/>
+      <c r="Q622" s="4"/>
+    </row>
+    <row r="623" customHeight="1" spans="1:17">
+      <c r="A623" s="4"/>
+      <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
+      <c r="O623" s="4"/>
+      <c r="Q623" s="4"/>
+    </row>
+    <row r="624" customHeight="1" spans="1:17">
+      <c r="A624" s="4"/>
+      <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
+      <c r="O624" s="4"/>
+      <c r="Q624" s="4"/>
+    </row>
+    <row r="625" customHeight="1" spans="1:17">
+      <c r="A625" s="4"/>
+      <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
+      <c r="O625" s="4"/>
+      <c r="Q625" s="4"/>
+    </row>
+    <row r="626" customHeight="1" spans="1:17">
+      <c r="A626" s="4"/>
+      <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
+      <c r="O626" s="4"/>
+      <c r="Q626" s="4"/>
+    </row>
+    <row r="627" customHeight="1" spans="1:17">
+      <c r="A627" s="4"/>
+      <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
+      <c r="O627" s="4"/>
+      <c r="Q627" s="4"/>
+    </row>
+    <row r="628" customHeight="1" spans="1:17">
+      <c r="A628" s="4"/>
+      <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
+      <c r="O628" s="4"/>
+      <c r="Q628" s="4"/>
+    </row>
+    <row r="629" customHeight="1" spans="1:17">
+      <c r="A629" s="4"/>
+      <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
+      <c r="O629" s="4"/>
+      <c r="Q629" s="4"/>
+    </row>
+    <row r="630" customHeight="1" spans="1:17">
+      <c r="A630" s="4"/>
+      <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
+      <c r="O630" s="4"/>
+      <c r="Q630" s="4"/>
+    </row>
+    <row r="631" customHeight="1" spans="1:17">
+      <c r="A631" s="4"/>
+      <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
+      <c r="O631" s="4"/>
+      <c r="Q631" s="4"/>
+    </row>
+    <row r="632" customHeight="1" spans="1:17">
+      <c r="A632" s="4"/>
+      <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
+      <c r="O632" s="4"/>
+      <c r="Q632" s="4"/>
+    </row>
+    <row r="633" customHeight="1" spans="1:17">
+      <c r="A633" s="4"/>
+      <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
+      <c r="O633" s="4"/>
+      <c r="Q633" s="4"/>
+    </row>
+    <row r="634" customHeight="1" spans="1:17">
+      <c r="A634" s="4"/>
+      <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
+      <c r="O634" s="4"/>
+      <c r="Q634" s="4"/>
+    </row>
+    <row r="635" customHeight="1" spans="1:17">
+      <c r="A635" s="4"/>
+      <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
+      <c r="O635" s="4"/>
+      <c r="Q635" s="4"/>
+    </row>
+    <row r="636" customHeight="1" spans="1:17">
+      <c r="A636" s="4"/>
+      <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
+      <c r="O636" s="4"/>
+      <c r="Q636" s="4"/>
+    </row>
+    <row r="637" customHeight="1" spans="1:17">
+      <c r="A637" s="4"/>
+      <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
+      <c r="O637" s="4"/>
+      <c r="Q637" s="4"/>
+    </row>
+    <row r="638" customHeight="1" spans="1:17">
+      <c r="A638" s="4"/>
+      <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
+      <c r="O638" s="4"/>
+      <c r="Q638" s="4"/>
+    </row>
+    <row r="639" customHeight="1" spans="1:17">
+      <c r="A639" s="4"/>
+      <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
+      <c r="O639" s="4"/>
+      <c r="Q639" s="4"/>
+    </row>
+    <row r="640" customHeight="1" spans="1:17">
+      <c r="A640" s="4"/>
+      <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
+      <c r="O640" s="4"/>
+      <c r="Q640" s="4"/>
+    </row>
+    <row r="641" customHeight="1" spans="1:17">
+      <c r="A641" s="4"/>
+      <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
+      <c r="O641" s="4"/>
+      <c r="Q641" s="4"/>
+    </row>
+    <row r="642" customHeight="1" spans="1:17">
+      <c r="A642" s="4"/>
+      <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
+      <c r="O642" s="4"/>
+      <c r="Q642" s="4"/>
+    </row>
+    <row r="643" customHeight="1" spans="1:17">
+      <c r="A643" s="4"/>
+      <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
+      <c r="O643" s="4"/>
+      <c r="Q643" s="4"/>
+    </row>
+    <row r="644" customHeight="1" spans="1:17">
+      <c r="A644" s="4"/>
+      <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
+      <c r="O644" s="4"/>
+      <c r="Q644" s="4"/>
+    </row>
+    <row r="645" customHeight="1" spans="1:17">
+      <c r="A645" s="4"/>
+      <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
+      <c r="O645" s="4"/>
+      <c r="Q645" s="4"/>
+    </row>
+    <row r="646" customHeight="1" spans="1:17">
+      <c r="A646" s="4"/>
+      <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
+      <c r="O646" s="4"/>
+      <c r="Q646" s="4"/>
+    </row>
+    <row r="647" customHeight="1" spans="1:17">
+      <c r="A647" s="4"/>
+      <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
+      <c r="O647" s="4"/>
+      <c r="Q647" s="4"/>
+    </row>
+    <row r="648" customHeight="1" spans="1:17">
+      <c r="A648" s="4"/>
+      <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
+      <c r="O648" s="4"/>
+      <c r="Q648" s="4"/>
+    </row>
+    <row r="649" customHeight="1" spans="1:17">
+      <c r="A649" s="4"/>
+      <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
+      <c r="O649" s="4"/>
+      <c r="Q649" s="4"/>
+    </row>
+    <row r="650" customHeight="1" spans="1:17">
+      <c r="A650" s="4"/>
+      <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
+      <c r="O650" s="4"/>
+      <c r="Q650" s="4"/>
+    </row>
+    <row r="651" customHeight="1" spans="1:17">
+      <c r="A651" s="4"/>
+      <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
+      <c r="O651" s="4"/>
+      <c r="Q651" s="4"/>
+    </row>
+    <row r="652" customHeight="1" spans="1:17">
+      <c r="A652" s="4"/>
+      <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
+      <c r="O652" s="4"/>
+      <c r="Q652" s="4"/>
+    </row>
+    <row r="653" customHeight="1" spans="1:17">
+      <c r="A653" s="4"/>
+      <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
+      <c r="O653" s="4"/>
+      <c r="Q653" s="4"/>
+    </row>
+    <row r="654" customHeight="1" spans="1:17">
+      <c r="A654" s="4"/>
+      <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
+      <c r="O654" s="4"/>
+      <c r="Q654" s="4"/>
+    </row>
+    <row r="655" customHeight="1" spans="1:17">
+      <c r="A655" s="4"/>
+      <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
+      <c r="O655" s="4"/>
+      <c r="Q655" s="4"/>
+    </row>
+    <row r="656" customHeight="1" spans="1:17">
+      <c r="A656" s="4"/>
+      <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
+      <c r="O656" s="4"/>
+      <c r="Q656" s="4"/>
+    </row>
+    <row r="657" customHeight="1" spans="1:17">
+      <c r="A657" s="4"/>
+      <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
+      <c r="O657" s="4"/>
+      <c r="Q657" s="4"/>
+    </row>
+    <row r="658" customHeight="1" spans="1:17">
+      <c r="A658" s="4"/>
+      <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
+      <c r="O658" s="4"/>
+      <c r="Q658" s="4"/>
+    </row>
+    <row r="659" customHeight="1" spans="1:17">
+      <c r="A659" s="4"/>
+      <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
+      <c r="O659" s="4"/>
+      <c r="Q659" s="4"/>
+    </row>
+    <row r="660" customHeight="1" spans="1:17">
+      <c r="A660" s="4"/>
+      <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
+      <c r="O660" s="4"/>
+      <c r="Q660" s="4"/>
+    </row>
+    <row r="661" customHeight="1" spans="1:17">
+      <c r="A661" s="4"/>
+      <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
+      <c r="O661" s="4"/>
+      <c r="Q661" s="4"/>
+    </row>
+    <row r="662" customHeight="1" spans="1:17">
+      <c r="A662" s="4"/>
+      <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
+      <c r="O662" s="4"/>
+      <c r="Q662" s="4"/>
+    </row>
+    <row r="663" customHeight="1" spans="1:17">
+      <c r="A663" s="4"/>
+      <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
+      <c r="O663" s="4"/>
+      <c r="Q663" s="4"/>
+    </row>
+    <row r="664" customHeight="1" spans="1:17">
+      <c r="A664" s="4"/>
+      <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
+      <c r="O664" s="4"/>
+      <c r="Q664" s="4"/>
+    </row>
+    <row r="665" customHeight="1" spans="1:17">
+      <c r="A665" s="4"/>
+      <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
+      <c r="O665" s="4"/>
+      <c r="Q665" s="4"/>
+    </row>
+    <row r="666" customHeight="1" spans="1:17">
+      <c r="A666" s="4"/>
+      <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
+      <c r="O666" s="4"/>
+      <c r="Q666" s="4"/>
+    </row>
+    <row r="667" customHeight="1" spans="1:17">
+      <c r="A667" s="4"/>
+      <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
+      <c r="O667" s="4"/>
+      <c r="Q667" s="4"/>
+    </row>
+    <row r="668" customHeight="1" spans="1:17">
+      <c r="A668" s="4"/>
+      <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
+      <c r="O668" s="4"/>
+      <c r="Q668" s="4"/>
+    </row>
+    <row r="669" customHeight="1" spans="1:17">
+      <c r="A669" s="4"/>
+      <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
+      <c r="O669" s="4"/>
+      <c r="Q669" s="4"/>
+    </row>
+    <row r="670" customHeight="1" spans="1:17">
+      <c r="A670" s="4"/>
+      <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
+      <c r="O670" s="4"/>
+      <c r="Q670" s="4"/>
+    </row>
+    <row r="671" customHeight="1" spans="1:17">
+      <c r="A671" s="4"/>
+      <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
+      <c r="O671" s="4"/>
+      <c r="Q671" s="4"/>
+    </row>
+    <row r="672" customHeight="1" spans="1:17">
+      <c r="A672" s="4"/>
+      <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
+      <c r="O672" s="4"/>
+      <c r="Q672" s="4"/>
+    </row>
+    <row r="673" customHeight="1" spans="1:17">
+      <c r="A673" s="4"/>
+      <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
+      <c r="O673" s="4"/>
+      <c r="Q673" s="4"/>
+    </row>
+    <row r="674" customHeight="1" spans="1:17">
+      <c r="A674" s="4"/>
+      <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
+      <c r="O674" s="4"/>
+      <c r="Q674" s="4"/>
+    </row>
+    <row r="675" customHeight="1" spans="1:17">
+      <c r="A675" s="4"/>
+      <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
+      <c r="O675" s="4"/>
+      <c r="Q675" s="4"/>
+    </row>
+    <row r="676" customHeight="1" spans="1:17">
+      <c r="A676" s="4"/>
+      <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
+      <c r="O676" s="4"/>
+      <c r="Q676" s="4"/>
+    </row>
+    <row r="677" customHeight="1" spans="1:17">
+      <c r="A677" s="4"/>
+      <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
+      <c r="O677" s="4"/>
+      <c r="Q677" s="4"/>
+    </row>
+    <row r="678" customHeight="1" spans="1:17">
+      <c r="A678" s="4"/>
+      <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
+      <c r="O678" s="4"/>
+      <c r="Q678" s="4"/>
+    </row>
+    <row r="679" customHeight="1" spans="1:17">
+      <c r="A679" s="4"/>
+      <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
+      <c r="O679" s="4"/>
+      <c r="Q679" s="4"/>
+    </row>
+    <row r="680" customHeight="1" spans="1:17">
+      <c r="A680" s="4"/>
+      <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
+      <c r="O680" s="4"/>
+      <c r="Q680" s="4"/>
+    </row>
+    <row r="681" customHeight="1" spans="1:17">
+      <c r="A681" s="4"/>
+      <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
+      <c r="O681" s="4"/>
+      <c r="Q681" s="4"/>
+    </row>
+    <row r="682" customHeight="1" spans="1:17">
+      <c r="A682" s="4"/>
+      <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
+      <c r="O682" s="4"/>
+      <c r="Q682" s="4"/>
+    </row>
+    <row r="683" customHeight="1" spans="1:17">
+      <c r="A683" s="4"/>
+      <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
+      <c r="O683" s="4"/>
+      <c r="Q683" s="4"/>
+    </row>
+    <row r="684" customHeight="1" spans="1:17">
+      <c r="A684" s="4"/>
+      <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
+      <c r="O684" s="4"/>
+      <c r="Q684" s="4"/>
+    </row>
+    <row r="685" customHeight="1" spans="1:17">
+      <c r="A685" s="4"/>
+      <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
+      <c r="O685" s="4"/>
+      <c r="Q685" s="4"/>
+    </row>
+    <row r="686" customHeight="1" spans="1:17">
+      <c r="A686" s="4"/>
+      <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
+      <c r="O686" s="4"/>
+      <c r="Q686" s="4"/>
+    </row>
+    <row r="687" customHeight="1" spans="1:17">
+      <c r="A687" s="4"/>
+      <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
+      <c r="O687" s="4"/>
+      <c r="Q687" s="4"/>
+    </row>
+    <row r="688" customHeight="1" spans="1:17">
+      <c r="A688" s="4"/>
+      <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
+      <c r="O688" s="4"/>
+      <c r="Q688" s="4"/>
+    </row>
+    <row r="689" customHeight="1" spans="1:17">
+      <c r="A689" s="4"/>
+      <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
+      <c r="O689" s="4"/>
+      <c r="Q689" s="4"/>
+    </row>
+    <row r="690" customHeight="1" spans="1:17">
+      <c r="A690" s="4"/>
+      <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
+      <c r="O690" s="4"/>
+      <c r="Q690" s="4"/>
+    </row>
+    <row r="691" customHeight="1" spans="1:17">
+      <c r="A691" s="4"/>
+      <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
+      <c r="O691" s="4"/>
+      <c r="Q691" s="4"/>
+    </row>
+    <row r="692" customHeight="1" spans="1:17">
+      <c r="A692" s="4"/>
+      <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
+      <c r="O692" s="4"/>
+      <c r="Q692" s="4"/>
+    </row>
+    <row r="693" customHeight="1" spans="1:17">
+      <c r="A693" s="4"/>
+      <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
+      <c r="O693" s="4"/>
+      <c r="Q693" s="4"/>
+    </row>
+    <row r="694" customHeight="1" spans="1:17">
+      <c r="A694" s="4"/>
+      <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
+      <c r="O694" s="4"/>
+      <c r="Q694" s="4"/>
+    </row>
+    <row r="695" customHeight="1" spans="1:17">
+      <c r="A695" s="4"/>
+      <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
+      <c r="O695" s="4"/>
+      <c r="Q695" s="4"/>
+    </row>
+    <row r="696" customHeight="1" spans="1:17">
+      <c r="A696" s="4"/>
+      <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
+      <c r="O696" s="4"/>
+      <c r="Q696" s="4"/>
+    </row>
+    <row r="697" customHeight="1" spans="1:17">
+      <c r="A697" s="4"/>
+      <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
+      <c r="O697" s="4"/>
+      <c r="Q697" s="4"/>
+    </row>
+    <row r="698" customHeight="1" spans="1:17">
+      <c r="A698" s="4"/>
+      <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
+      <c r="O698" s="4"/>
+      <c r="Q698" s="4"/>
+    </row>
+    <row r="699" customHeight="1" spans="1:17">
+      <c r="A699" s="4"/>
+      <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
+      <c r="O699" s="4"/>
+      <c r="Q699" s="4"/>
+    </row>
+    <row r="700" customHeight="1" spans="1:17">
+      <c r="A700" s="4"/>
+      <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
+      <c r="O700" s="4"/>
+      <c r="Q700" s="4"/>
+    </row>
+    <row r="701" customHeight="1" spans="1:17">
+      <c r="A701" s="4"/>
+      <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
+      <c r="O701" s="4"/>
+      <c r="Q701" s="4"/>
+    </row>
+    <row r="702" customHeight="1" spans="1:17">
+      <c r="A702" s="4"/>
+      <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
+      <c r="O702" s="4"/>
+      <c r="Q702" s="4"/>
+    </row>
+    <row r="703" customHeight="1" spans="1:17">
+      <c r="A703" s="4"/>
+      <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
+      <c r="O703" s="4"/>
+      <c r="Q703" s="4"/>
+    </row>
+    <row r="704" customHeight="1" spans="1:17">
+      <c r="A704" s="4"/>
+      <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
+      <c r="O704" s="4"/>
+      <c r="Q704" s="4"/>
+    </row>
+    <row r="705" customHeight="1" spans="1:17">
+      <c r="A705" s="4"/>
+      <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
+      <c r="O705" s="4"/>
+      <c r="Q705" s="4"/>
+    </row>
+    <row r="706" customHeight="1" spans="1:17">
+      <c r="A706" s="4"/>
+      <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
+      <c r="O706" s="4"/>
+      <c r="Q706" s="4"/>
+    </row>
+    <row r="707" customHeight="1" spans="1:17">
+      <c r="A707" s="4"/>
+      <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
+      <c r="O707" s="4"/>
+      <c r="Q707" s="4"/>
+    </row>
+    <row r="708" customHeight="1" spans="1:17">
+      <c r="A708" s="4"/>
+      <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
+      <c r="O708" s="4"/>
+      <c r="Q708" s="4"/>
+    </row>
+    <row r="709" customHeight="1" spans="1:17">
+      <c r="A709" s="4"/>
+      <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
+      <c r="O709" s="4"/>
+      <c r="Q709" s="4"/>
+    </row>
+    <row r="710" customHeight="1" spans="1:17">
+      <c r="A710" s="4"/>
+      <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
+      <c r="O710" s="4"/>
+      <c r="Q710" s="4"/>
+    </row>
+    <row r="711" customHeight="1" spans="1:17">
+      <c r="A711" s="4"/>
+      <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
+      <c r="O711" s="4"/>
+      <c r="Q711" s="4"/>
+    </row>
+    <row r="712" customHeight="1" spans="1:17">
+      <c r="A712" s="4"/>
+      <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
+      <c r="O712" s="4"/>
+      <c r="Q712" s="4"/>
+    </row>
+    <row r="713" customHeight="1" spans="1:17">
+      <c r="A713" s="4"/>
+      <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
+      <c r="O713" s="4"/>
+      <c r="Q713" s="4"/>
+    </row>
+    <row r="714" customHeight="1" spans="1:17">
+      <c r="A714" s="4"/>
+      <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
+      <c r="O714" s="4"/>
+      <c r="Q714" s="4"/>
+    </row>
+    <row r="715" customHeight="1" spans="1:17">
+      <c r="A715" s="4"/>
+      <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
+      <c r="O715" s="4"/>
+      <c r="Q715" s="4"/>
+    </row>
+    <row r="716" customHeight="1" spans="1:17">
+      <c r="A716" s="4"/>
+      <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
+      <c r="O716" s="4"/>
+      <c r="Q716" s="4"/>
+    </row>
+    <row r="717" customHeight="1" spans="1:17">
+      <c r="A717" s="4"/>
+      <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
+      <c r="O717" s="4"/>
+      <c r="Q717" s="4"/>
+    </row>
+    <row r="718" customHeight="1" spans="1:17">
+      <c r="A718" s="4"/>
+      <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
+      <c r="O718" s="4"/>
+      <c r="Q718" s="4"/>
+    </row>
+    <row r="719" customHeight="1" spans="1:17">
+      <c r="A719" s="4"/>
+      <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
+      <c r="O719" s="4"/>
+      <c r="Q719" s="4"/>
+    </row>
+    <row r="720" customHeight="1" spans="1:17">
+      <c r="A720" s="4"/>
+      <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
+      <c r="O720" s="4"/>
+      <c r="Q720" s="4"/>
+    </row>
+    <row r="721" customHeight="1" spans="1:17">
+      <c r="A721" s="4"/>
+      <c r="F721" s="4"/>
+      <c r="G721" s="4"/>
+      <c r="O721" s="4"/>
+      <c r="Q721" s="4"/>
+    </row>
+    <row r="722" customHeight="1" spans="1:17">
+      <c r="A722" s="4"/>
+      <c r="F722" s="4"/>
+      <c r="G722" s="4"/>
+      <c r="O722" s="4"/>
+      <c r="Q722" s="4"/>
+    </row>
+    <row r="723" customHeight="1" spans="1:17">
+      <c r="A723" s="4"/>
+      <c r="F723" s="4"/>
+      <c r="G723" s="4"/>
+      <c r="O723" s="4"/>
+      <c r="Q723" s="4"/>
+    </row>
+    <row r="724" customHeight="1" spans="1:17">
+      <c r="A724" s="4"/>
+      <c r="F724" s="4"/>
+      <c r="G724" s="4"/>
+      <c r="O724" s="4"/>
+      <c r="Q724" s="4"/>
+    </row>
+    <row r="725" customHeight="1" spans="1:17">
+      <c r="A725" s="4"/>
+      <c r="F725" s="4"/>
+      <c r="G725" s="4"/>
+      <c r="O725" s="4"/>
+      <c r="Q725" s="4"/>
+    </row>
+    <row r="726" customHeight="1" spans="1:17">
+      <c r="A726" s="4"/>
+      <c r="F726" s="4"/>
+      <c r="G726" s="4"/>
+      <c r="O726" s="4"/>
+      <c r="Q726" s="4"/>
+    </row>
+    <row r="727" customHeight="1" spans="1:17">
+      <c r="A727" s="4"/>
+      <c r="F727" s="4"/>
+      <c r="G727" s="4"/>
+      <c r="O727" s="4"/>
+      <c r="Q727" s="4"/>
+    </row>
+    <row r="728" customHeight="1" spans="1:17">
+      <c r="A728" s="4"/>
+      <c r="F728" s="4"/>
+      <c r="G728" s="4"/>
+      <c r="O728" s="4"/>
+      <c r="Q728" s="4"/>
+    </row>
+    <row r="729" customHeight="1" spans="1:17">
+      <c r="A729" s="4"/>
+      <c r="F729" s="4"/>
+      <c r="G729" s="4"/>
+      <c r="O729" s="4"/>
+      <c r="Q729" s="4"/>
+    </row>
+    <row r="730" customHeight="1" spans="1:17">
+      <c r="A730" s="4"/>
+      <c r="F730" s="4"/>
+      <c r="G730" s="4"/>
+      <c r="O730" s="4"/>
+      <c r="Q730" s="4"/>
+    </row>
+    <row r="731" customHeight="1" spans="1:17">
+      <c r="A731" s="4"/>
+      <c r="F731" s="4"/>
+      <c r="G731" s="4"/>
+      <c r="O731" s="4"/>
+      <c r="Q731" s="4"/>
+    </row>
+    <row r="732" customHeight="1" spans="1:17">
+      <c r="A732" s="4"/>
+      <c r="F732" s="4"/>
+      <c r="G732" s="4"/>
+      <c r="O732" s="4"/>
+      <c r="Q732" s="4"/>
+    </row>
+    <row r="733" customHeight="1" spans="1:17">
+      <c r="A733" s="4"/>
+      <c r="F733" s="4"/>
+      <c r="G733" s="4"/>
+      <c r="O733" s="4"/>
+      <c r="Q733" s="4"/>
+    </row>
+    <row r="734" customHeight="1" spans="1:17">
+      <c r="A734" s="4"/>
+      <c r="F734" s="4"/>
+      <c r="G734" s="4"/>
+      <c r="O734" s="4"/>
+      <c r="Q734" s="4"/>
+    </row>
+    <row r="735" customHeight="1" spans="1:17">
+      <c r="A735" s="4"/>
+      <c r="F735" s="4"/>
+      <c r="G735" s="4"/>
+      <c r="O735" s="4"/>
+      <c r="Q735" s="4"/>
+    </row>
+    <row r="736" customHeight="1" spans="1:17">
+      <c r="A736" s="4"/>
+      <c r="F736" s="4"/>
+      <c r="G736" s="4"/>
+      <c r="O736" s="4"/>
+      <c r="Q736" s="4"/>
+    </row>
+    <row r="737" customHeight="1" spans="1:17">
+      <c r="A737" s="4"/>
+      <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
+      <c r="O737" s="4"/>
+      <c r="Q737" s="4"/>
+    </row>
+    <row r="738" customHeight="1" spans="1:17">
+      <c r="A738" s="4"/>
+      <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
+      <c r="O738" s="4"/>
+      <c r="Q738" s="4"/>
+    </row>
+    <row r="739" customHeight="1" spans="1:17">
+      <c r="A739" s="4"/>
+      <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
+      <c r="O739" s="4"/>
+      <c r="Q739" s="4"/>
+    </row>
+    <row r="740" customHeight="1" spans="1:17">
+      <c r="A740" s="4"/>
+      <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
+      <c r="O740" s="4"/>
+      <c r="Q740" s="4"/>
+    </row>
+    <row r="741" customHeight="1" spans="1:17">
+      <c r="A741" s="4"/>
+      <c r="F741" s="4"/>
+      <c r="G741" s="4"/>
+      <c r="O741" s="4"/>
+      <c r="Q741" s="4"/>
+    </row>
+    <row r="742" customHeight="1" spans="1:17">
+      <c r="A742" s="4"/>
+      <c r="F742" s="4"/>
+      <c r="G742" s="4"/>
+      <c r="O742" s="4"/>
+      <c r="Q742" s="4"/>
+    </row>
+    <row r="743" customHeight="1" spans="1:17">
+      <c r="A743" s="4"/>
+      <c r="F743" s="4"/>
+      <c r="G743" s="4"/>
+      <c r="O743" s="4"/>
+      <c r="Q743" s="4"/>
+    </row>
+    <row r="744" customHeight="1" spans="1:17">
+      <c r="A744" s="4"/>
+      <c r="F744" s="4"/>
+      <c r="G744" s="4"/>
+      <c r="O744" s="4"/>
+      <c r="Q744" s="4"/>
+    </row>
+    <row r="745" customHeight="1" spans="1:17">
+      <c r="A745" s="4"/>
+      <c r="F745" s="4"/>
+      <c r="G745" s="4"/>
+      <c r="O745" s="4"/>
+      <c r="Q745" s="4"/>
+    </row>
+    <row r="746" customHeight="1" spans="1:17">
+      <c r="A746" s="4"/>
+      <c r="F746" s="4"/>
+      <c r="G746" s="4"/>
+      <c r="O746" s="4"/>
+      <c r="Q746" s="4"/>
+    </row>
+    <row r="747" customHeight="1" spans="1:17">
+      <c r="A747" s="4"/>
+      <c r="F747" s="4"/>
+      <c r="G747" s="4"/>
+      <c r="O747" s="4"/>
+      <c r="Q747" s="4"/>
+    </row>
+    <row r="748" customHeight="1" spans="1:17">
+      <c r="A748" s="4"/>
+      <c r="F748" s="4"/>
+      <c r="G748" s="4"/>
+      <c r="O748" s="4"/>
+      <c r="Q748" s="4"/>
+    </row>
+    <row r="749" customHeight="1" spans="1:17">
+      <c r="A749" s="4"/>
+      <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
+      <c r="O749" s="4"/>
+      <c r="Q749" s="4"/>
+    </row>
+    <row r="750" customHeight="1" spans="1:17">
+      <c r="A750" s="4"/>
+      <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
+      <c r="O750" s="4"/>
+      <c r="Q750" s="4"/>
+    </row>
+    <row r="751" customHeight="1" spans="1:17">
+      <c r="A751" s="4"/>
+      <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
+      <c r="O751" s="4"/>
+      <c r="Q751" s="4"/>
+    </row>
+    <row r="752" customHeight="1" spans="1:17">
+      <c r="A752" s="4"/>
+      <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
+      <c r="O752" s="4"/>
+      <c r="Q752" s="4"/>
+    </row>
+    <row r="753" customHeight="1" spans="1:17">
+      <c r="A753" s="4"/>
+      <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
+      <c r="O753" s="4"/>
+      <c r="Q753" s="4"/>
+    </row>
+    <row r="754" customHeight="1" spans="1:17">
+      <c r="A754" s="4"/>
+      <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
+      <c r="O754" s="4"/>
+      <c r="Q754" s="4"/>
+    </row>
+    <row r="755" customHeight="1" spans="1:17">
+      <c r="A755" s="4"/>
+      <c r="F755" s="4"/>
+      <c r="G755" s="4"/>
+      <c r="O755" s="4"/>
+      <c r="Q755" s="4"/>
+    </row>
+    <row r="756" customHeight="1" spans="1:17">
+      <c r="A756" s="4"/>
+      <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
+      <c r="O756" s="4"/>
+      <c r="Q756" s="4"/>
+    </row>
+    <row r="757" customHeight="1" spans="1:17">
+      <c r="A757" s="4"/>
+      <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
+      <c r="O757" s="4"/>
+      <c r="Q757" s="4"/>
+    </row>
+    <row r="758" customHeight="1" spans="1:17">
+      <c r="A758" s="4"/>
+      <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
+      <c r="O758" s="4"/>
+      <c r="Q758" s="4"/>
+    </row>
+    <row r="759" customHeight="1" spans="1:17">
+      <c r="A759" s="4"/>
+      <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
+      <c r="O759" s="4"/>
+      <c r="Q759" s="4"/>
+    </row>
+    <row r="760" customHeight="1" spans="1:17">
+      <c r="A760" s="4"/>
+      <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
+      <c r="O760" s="4"/>
+      <c r="Q760" s="4"/>
+    </row>
+    <row r="761" customHeight="1" spans="1:17">
+      <c r="A761" s="4"/>
+      <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
+      <c r="O761" s="4"/>
+      <c r="Q761" s="4"/>
+    </row>
+    <row r="762" customHeight="1" spans="1:17">
+      <c r="A762" s="4"/>
+      <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
+      <c r="O762" s="4"/>
+      <c r="Q762" s="4"/>
+    </row>
+    <row r="763" customHeight="1" spans="1:17">
+      <c r="A763" s="4"/>
+      <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
+      <c r="O763" s="4"/>
+      <c r="Q763" s="4"/>
+    </row>
+    <row r="764" customHeight="1" spans="1:17">
+      <c r="A764" s="4"/>
+      <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
+      <c r="O764" s="4"/>
+      <c r="Q764" s="4"/>
+    </row>
+    <row r="765" customHeight="1" spans="1:17">
+      <c r="A765" s="4"/>
+      <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
+      <c r="O765" s="4"/>
+      <c r="Q765" s="4"/>
+    </row>
+    <row r="766" customHeight="1" spans="1:17">
+      <c r="A766" s="4"/>
+      <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
+      <c r="O766" s="4"/>
+      <c r="Q766" s="4"/>
+    </row>
+    <row r="767" customHeight="1" spans="1:17">
+      <c r="A767" s="4"/>
+      <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
+      <c r="O767" s="4"/>
+      <c r="Q767" s="4"/>
+    </row>
+    <row r="768" customHeight="1" spans="1:17">
+      <c r="A768" s="4"/>
+      <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
+      <c r="O768" s="4"/>
+      <c r="Q768" s="4"/>
+    </row>
+    <row r="769" customHeight="1" spans="1:17">
+      <c r="A769" s="4"/>
+      <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
+      <c r="O769" s="4"/>
+      <c r="Q769" s="4"/>
+    </row>
+    <row r="770" customHeight="1" spans="1:17">
+      <c r="A770" s="4"/>
+      <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
+      <c r="O770" s="4"/>
+      <c r="Q770" s="4"/>
+    </row>
+    <row r="771" customHeight="1" spans="1:17">
+      <c r="A771" s="4"/>
+      <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
+      <c r="O771" s="4"/>
+      <c r="Q771" s="4"/>
+    </row>
+    <row r="772" customHeight="1" spans="1:17">
+      <c r="A772" s="4"/>
+      <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
+      <c r="O772" s="4"/>
+      <c r="Q772" s="4"/>
+    </row>
+    <row r="773" customHeight="1" spans="1:17">
+      <c r="A773" s="4"/>
+      <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
+      <c r="O773" s="4"/>
+      <c r="Q773" s="4"/>
+    </row>
+    <row r="774" customHeight="1" spans="1:17">
+      <c r="A774" s="4"/>
+      <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
+      <c r="O774" s="4"/>
+      <c r="Q774" s="4"/>
+    </row>
+    <row r="775" customHeight="1" spans="1:17">
+      <c r="A775" s="4"/>
+      <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
+      <c r="O775" s="4"/>
+      <c r="Q775" s="4"/>
+    </row>
+    <row r="776" customHeight="1" spans="1:17">
+      <c r="A776" s="4"/>
+      <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
+      <c r="O776" s="4"/>
+      <c r="Q776" s="4"/>
+    </row>
+    <row r="777" customHeight="1" spans="1:17">
+      <c r="A777" s="4"/>
+      <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
+      <c r="O777" s="4"/>
+      <c r="Q777" s="4"/>
+    </row>
+    <row r="778" customHeight="1" spans="1:17">
+      <c r="A778" s="4"/>
+      <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
+      <c r="O778" s="4"/>
+      <c r="Q778" s="4"/>
+    </row>
+    <row r="779" customHeight="1" spans="1:17">
+      <c r="A779" s="4"/>
+      <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
+      <c r="O779" s="4"/>
+      <c r="Q779" s="4"/>
+    </row>
+    <row r="780" customHeight="1" spans="1:17">
+      <c r="A780" s="4"/>
+      <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
+      <c r="O780" s="4"/>
+      <c r="Q780" s="4"/>
+    </row>
+    <row r="781" customHeight="1" spans="1:17">
+      <c r="A781" s="4"/>
+      <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
+      <c r="O781" s="4"/>
+      <c r="Q781" s="4"/>
+    </row>
+    <row r="782" customHeight="1" spans="1:17">
+      <c r="A782" s="4"/>
+      <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
+      <c r="O782" s="4"/>
+      <c r="Q782" s="4"/>
+    </row>
+    <row r="783" customHeight="1" spans="1:17">
+      <c r="A783" s="4"/>
+      <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
+      <c r="O783" s="4"/>
+      <c r="Q783" s="4"/>
+    </row>
+    <row r="784" customHeight="1" spans="1:17">
+      <c r="A784" s="4"/>
+      <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
+      <c r="O784" s="4"/>
+      <c r="Q784" s="4"/>
+    </row>
+    <row r="785" customHeight="1" spans="1:17">
+      <c r="A785" s="4"/>
+      <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
+      <c r="O785" s="4"/>
+      <c r="Q785" s="4"/>
+    </row>
+    <row r="786" customHeight="1" spans="1:17">
+      <c r="A786" s="4"/>
+      <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
+      <c r="O786" s="4"/>
+      <c r="Q786" s="4"/>
+    </row>
+    <row r="787" customHeight="1" spans="1:17">
+      <c r="A787" s="4"/>
+      <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
+      <c r="O787" s="4"/>
+      <c r="Q787" s="4"/>
+    </row>
+    <row r="788" customHeight="1" spans="1:17">
+      <c r="A788" s="4"/>
+      <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
+      <c r="O788" s="4"/>
+      <c r="Q788" s="4"/>
+    </row>
+    <row r="789" customHeight="1" spans="1:17">
+      <c r="A789" s="4"/>
+      <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
+      <c r="O789" s="4"/>
+      <c r="Q789" s="4"/>
+    </row>
+    <row r="790" customHeight="1" spans="1:17">
+      <c r="A790" s="4"/>
+      <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
+      <c r="O790" s="4"/>
+      <c r="Q790" s="4"/>
+    </row>
+    <row r="791" customHeight="1" spans="1:17">
+      <c r="A791" s="4"/>
+      <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
+      <c r="O791" s="4"/>
+      <c r="Q791" s="4"/>
+    </row>
+    <row r="792" customHeight="1" spans="1:17">
+      <c r="A792" s="4"/>
+      <c r="F792" s="4"/>
+      <c r="G792" s="4"/>
+      <c r="O792" s="4"/>
+      <c r="Q792" s="4"/>
+    </row>
+    <row r="793" customHeight="1" spans="1:17">
+      <c r="A793" s="4"/>
+      <c r="F793" s="4"/>
+      <c r="G793" s="4"/>
+      <c r="O793" s="4"/>
+      <c r="Q793" s="4"/>
+    </row>
+    <row r="794" customHeight="1" spans="1:17">
+      <c r="A794" s="4"/>
+      <c r="F794" s="4"/>
+      <c r="G794" s="4"/>
+      <c r="O794" s="4"/>
+      <c r="Q794" s="4"/>
+    </row>
+    <row r="795" customHeight="1" spans="1:17">
+      <c r="A795" s="4"/>
+      <c r="F795" s="4"/>
+      <c r="G795" s="4"/>
+      <c r="O795" s="4"/>
+      <c r="Q795" s="4"/>
+    </row>
+    <row r="796" customHeight="1" spans="1:17">
+      <c r="A796" s="4"/>
+      <c r="F796" s="4"/>
+      <c r="G796" s="4"/>
+      <c r="O796" s="4"/>
+      <c r="Q796" s="4"/>
+    </row>
+    <row r="797" customHeight="1" spans="1:17">
+      <c r="A797" s="4"/>
+      <c r="F797" s="4"/>
+      <c r="G797" s="4"/>
+      <c r="O797" s="4"/>
+      <c r="Q797" s="4"/>
+    </row>
+    <row r="798" customHeight="1" spans="1:17">
+      <c r="A798" s="4"/>
+      <c r="F798" s="4"/>
+      <c r="G798" s="4"/>
+      <c r="O798" s="4"/>
+      <c r="Q798" s="4"/>
+    </row>
+    <row r="799" customHeight="1" spans="1:17">
+      <c r="A799" s="4"/>
+      <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
+      <c r="O799" s="4"/>
+      <c r="Q799" s="4"/>
+    </row>
+    <row r="800" customHeight="1" spans="1:17">
+      <c r="A800" s="4"/>
+      <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
+      <c r="O800" s="4"/>
+      <c r="Q800" s="4"/>
+    </row>
+    <row r="801" customHeight="1" spans="1:17">
+      <c r="A801" s="4"/>
+      <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
+      <c r="O801" s="4"/>
+      <c r="Q801" s="4"/>
+    </row>
+    <row r="802" customHeight="1" spans="1:17">
+      <c r="A802" s="4"/>
+      <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
+      <c r="O802" s="4"/>
+      <c r="Q802" s="4"/>
+    </row>
+    <row r="803" customHeight="1" spans="1:17">
+      <c r="A803" s="4"/>
+      <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
+      <c r="O803" s="4"/>
+      <c r="Q803" s="4"/>
+    </row>
+    <row r="804" customHeight="1" spans="1:17">
+      <c r="A804" s="4"/>
+      <c r="F804" s="4"/>
+      <c r="G804" s="4"/>
+      <c r="O804" s="4"/>
+      <c r="Q804" s="4"/>
+    </row>
+    <row r="805" customHeight="1" spans="1:17">
+      <c r="A805" s="4"/>
+      <c r="F805" s="4"/>
+      <c r="G805" s="4"/>
+      <c r="O805" s="4"/>
+      <c r="Q805" s="4"/>
+    </row>
+    <row r="806" customHeight="1" spans="1:17">
+      <c r="A806" s="4"/>
+      <c r="F806" s="4"/>
+      <c r="G806" s="4"/>
+      <c r="O806" s="4"/>
+      <c r="Q806" s="4"/>
+    </row>
+    <row r="807" customHeight="1" spans="1:17">
+      <c r="A807" s="4"/>
+      <c r="F807" s="4"/>
+      <c r="G807" s="4"/>
+      <c r="O807" s="4"/>
+      <c r="Q807" s="4"/>
+    </row>
+    <row r="808" customHeight="1" spans="1:17">
+      <c r="A808" s="4"/>
+      <c r="F808" s="4"/>
+      <c r="G808" s="4"/>
+      <c r="O808" s="4"/>
+      <c r="Q808" s="4"/>
+    </row>
+    <row r="809" customHeight="1" spans="1:17">
+      <c r="A809" s="4"/>
+      <c r="F809" s="4"/>
+      <c r="G809" s="4"/>
+      <c r="O809" s="4"/>
+      <c r="Q809" s="4"/>
+    </row>
+    <row r="810" customHeight="1" spans="1:17">
+      <c r="A810" s="4"/>
+      <c r="F810" s="4"/>
+      <c r="G810" s="4"/>
+      <c r="O810" s="4"/>
+      <c r="Q810" s="4"/>
+    </row>
+    <row r="811" customHeight="1" spans="1:17">
+      <c r="A811" s="4"/>
+      <c r="F811" s="4"/>
+      <c r="G811" s="4"/>
+      <c r="O811" s="4"/>
+      <c r="Q811" s="4"/>
+    </row>
+    <row r="812" customHeight="1" spans="1:17">
+      <c r="A812" s="4"/>
+      <c r="F812" s="4"/>
+      <c r="G812" s="4"/>
+      <c r="O812" s="4"/>
+      <c r="Q812" s="4"/>
+    </row>
+    <row r="813" customHeight="1" spans="1:17">
+      <c r="A813" s="4"/>
+      <c r="F813" s="4"/>
+      <c r="G813" s="4"/>
+      <c r="O813" s="4"/>
+      <c r="Q813" s="4"/>
+    </row>
+    <row r="814" customHeight="1" spans="1:17">
+      <c r="A814" s="4"/>
+      <c r="F814" s="4"/>
+      <c r="G814" s="4"/>
+      <c r="O814" s="4"/>
+      <c r="Q814" s="4"/>
+    </row>
+    <row r="815" customHeight="1" spans="1:17">
+      <c r="A815" s="4"/>
+      <c r="F815" s="4"/>
+      <c r="G815" s="4"/>
+      <c r="O815" s="4"/>
+      <c r="Q815" s="4"/>
+    </row>
+    <row r="816" customHeight="1" spans="1:17">
+      <c r="A816" s="4"/>
+      <c r="F816" s="4"/>
+      <c r="G816" s="4"/>
+      <c r="O816" s="4"/>
+      <c r="Q816" s="4"/>
+    </row>
+    <row r="817" customHeight="1" spans="1:17">
+      <c r="A817" s="4"/>
+      <c r="F817" s="4"/>
+      <c r="G817" s="4"/>
+      <c r="O817" s="4"/>
+      <c r="Q817" s="4"/>
+    </row>
+    <row r="818" customHeight="1" spans="1:17">
+      <c r="A818" s="4"/>
+      <c r="F818" s="4"/>
+      <c r="G818" s="4"/>
+      <c r="O818" s="4"/>
+      <c r="Q818" s="4"/>
+    </row>
+    <row r="819" customHeight="1" spans="1:17">
+      <c r="A819" s="4"/>
+      <c r="F819" s="4"/>
+      <c r="G819" s="4"/>
+      <c r="O819" s="4"/>
+      <c r="Q819" s="4"/>
+    </row>
+    <row r="820" customHeight="1" spans="1:17">
+      <c r="A820" s="4"/>
+      <c r="F820" s="4"/>
+      <c r="G820" s="4"/>
+      <c r="O820" s="4"/>
+      <c r="Q820" s="4"/>
+    </row>
+    <row r="821" customHeight="1" spans="1:17">
+      <c r="A821" s="4"/>
+      <c r="F821" s="4"/>
+      <c r="G821" s="4"/>
+      <c r="O821" s="4"/>
+      <c r="Q821" s="4"/>
+    </row>
+    <row r="822" customHeight="1" spans="1:17">
+      <c r="A822" s="4"/>
+      <c r="F822" s="4"/>
+      <c r="G822" s="4"/>
+      <c r="O822" s="4"/>
+      <c r="Q822" s="4"/>
+    </row>
+    <row r="823" customHeight="1" spans="1:17">
+      <c r="A823" s="4"/>
+      <c r="F823" s="4"/>
+      <c r="G823" s="4"/>
+      <c r="O823" s="4"/>
+      <c r="Q823" s="4"/>
+    </row>
+    <row r="824" customHeight="1" spans="1:17">
+      <c r="A824" s="4"/>
+      <c r="F824" s="4"/>
+      <c r="G824" s="4"/>
+      <c r="O824" s="4"/>
+      <c r="Q824" s="4"/>
+    </row>
+    <row r="825" customHeight="1" spans="1:17">
+      <c r="A825" s="4"/>
+      <c r="F825" s="4"/>
+      <c r="G825" s="4"/>
+      <c r="O825" s="4"/>
+      <c r="Q825" s="4"/>
+    </row>
+    <row r="826" customHeight="1" spans="1:17">
+      <c r="A826" s="4"/>
+      <c r="F826" s="4"/>
+      <c r="G826" s="4"/>
+      <c r="O826" s="4"/>
+      <c r="Q826" s="4"/>
+    </row>
+    <row r="827" customHeight="1" spans="1:17">
+      <c r="A827" s="4"/>
+      <c r="F827" s="4"/>
+      <c r="G827" s="4"/>
+      <c r="O827" s="4"/>
+      <c r="Q827" s="4"/>
+    </row>
+    <row r="828" customHeight="1" spans="1:17">
+      <c r="A828" s="4"/>
+      <c r="F828" s="4"/>
+      <c r="G828" s="4"/>
+      <c r="O828" s="4"/>
+      <c r="Q828" s="4"/>
+    </row>
+    <row r="829" customHeight="1" spans="1:17">
+      <c r="A829" s="4"/>
+      <c r="F829" s="4"/>
+      <c r="G829" s="4"/>
+      <c r="O829" s="4"/>
+      <c r="Q829" s="4"/>
+    </row>
+    <row r="830" customHeight="1" spans="1:17">
+      <c r="A830" s="4"/>
+      <c r="F830" s="4"/>
+      <c r="G830" s="4"/>
+      <c r="O830" s="4"/>
+      <c r="Q830" s="4"/>
+    </row>
+    <row r="831" customHeight="1" spans="1:17">
+      <c r="A831" s="4"/>
+      <c r="F831" s="4"/>
+      <c r="G831" s="4"/>
+      <c r="O831" s="4"/>
+      <c r="Q831" s="4"/>
+    </row>
+    <row r="832" customHeight="1" spans="1:17">
+      <c r="A832" s="4"/>
+      <c r="F832" s="4"/>
+      <c r="G832" s="4"/>
+      <c r="O832" s="4"/>
+      <c r="Q832" s="4"/>
+    </row>
+    <row r="833" customHeight="1" spans="1:17">
+      <c r="A833" s="4"/>
+      <c r="F833" s="4"/>
+      <c r="G833" s="4"/>
+      <c r="O833" s="4"/>
+      <c r="Q833" s="4"/>
+    </row>
+    <row r="834" customHeight="1" spans="1:17">
+      <c r="A834" s="4"/>
+      <c r="F834" s="4"/>
+      <c r="G834" s="4"/>
+      <c r="O834" s="4"/>
+      <c r="Q834" s="4"/>
+    </row>
+    <row r="835" customHeight="1" spans="1:17">
+      <c r="A835" s="4"/>
+      <c r="F835" s="4"/>
+      <c r="G835" s="4"/>
+      <c r="O835" s="4"/>
+      <c r="Q835" s="4"/>
+    </row>
+    <row r="836" customHeight="1" spans="1:17">
+      <c r="A836" s="4"/>
+      <c r="F836" s="4"/>
+      <c r="G836" s="4"/>
+      <c r="O836" s="4"/>
+      <c r="Q836" s="4"/>
+    </row>
+    <row r="837" customHeight="1" spans="1:17">
+      <c r="A837" s="4"/>
+      <c r="F837" s="4"/>
+      <c r="G837" s="4"/>
+      <c r="O837" s="4"/>
+      <c r="Q837" s="4"/>
+    </row>
+    <row r="838" customHeight="1" spans="1:17">
+      <c r="A838" s="4"/>
+      <c r="F838" s="4"/>
+      <c r="G838" s="4"/>
+      <c r="O838" s="4"/>
+      <c r="Q838" s="4"/>
+    </row>
+    <row r="839" customHeight="1" spans="1:17">
+      <c r="A839" s="4"/>
+      <c r="F839" s="4"/>
+      <c r="G839" s="4"/>
+      <c r="O839" s="4"/>
+      <c r="Q839" s="4"/>
+    </row>
+    <row r="840" customHeight="1" spans="1:17">
+      <c r="A840" s="4"/>
+      <c r="F840" s="4"/>
+      <c r="G840" s="4"/>
+      <c r="O840" s="4"/>
+      <c r="Q840" s="4"/>
+    </row>
+    <row r="841" customHeight="1" spans="1:17">
+      <c r="A841" s="4"/>
+      <c r="F841" s="4"/>
+      <c r="G841" s="4"/>
+      <c r="O841" s="4"/>
+      <c r="Q841" s="4"/>
+    </row>
+    <row r="842" customHeight="1" spans="1:17">
+      <c r="A842" s="4"/>
+      <c r="F842" s="4"/>
+      <c r="G842" s="4"/>
+      <c r="O842" s="4"/>
+      <c r="Q842" s="4"/>
+    </row>
+    <row r="843" customHeight="1" spans="1:17">
+      <c r="A843" s="4"/>
+      <c r="F843" s="4"/>
+      <c r="G843" s="4"/>
+      <c r="O843" s="4"/>
+      <c r="Q843" s="4"/>
+    </row>
+    <row r="844" customHeight="1" spans="1:17">
+      <c r="A844" s="4"/>
+      <c r="F844" s="4"/>
+      <c r="G844" s="4"/>
+      <c r="O844" s="4"/>
+      <c r="Q844" s="4"/>
+    </row>
+    <row r="845" customHeight="1" spans="1:17">
+      <c r="A845" s="4"/>
+      <c r="F845" s="4"/>
+      <c r="G845" s="4"/>
+      <c r="O845" s="4"/>
+      <c r="Q845" s="4"/>
+    </row>
+    <row r="846" customHeight="1" spans="1:17">
+      <c r="A846" s="4"/>
+      <c r="F846" s="4"/>
+      <c r="G846" s="4"/>
+      <c r="O846" s="4"/>
+      <c r="Q846" s="4"/>
+    </row>
+    <row r="847" customHeight="1" spans="1:17">
+      <c r="A847" s="4"/>
+      <c r="F847" s="4"/>
+      <c r="G847" s="4"/>
+      <c r="O847" s="4"/>
+      <c r="Q847" s="4"/>
+    </row>
+    <row r="848" customHeight="1" spans="1:17">
+      <c r="A848" s="4"/>
+      <c r="F848" s="4"/>
+      <c r="G848" s="4"/>
+      <c r="O848" s="4"/>
+      <c r="Q848" s="4"/>
+    </row>
+    <row r="849" customHeight="1" spans="1:17">
+      <c r="A849" s="4"/>
+      <c r="F849" s="4"/>
+      <c r="G849" s="4"/>
+      <c r="O849" s="4"/>
+      <c r="Q849" s="4"/>
+    </row>
+    <row r="850" customHeight="1" spans="1:17">
+      <c r="A850" s="4"/>
+      <c r="F850" s="4"/>
+      <c r="G850" s="4"/>
+      <c r="O850" s="4"/>
+      <c r="Q850" s="4"/>
+    </row>
+    <row r="851" customHeight="1" spans="1:17">
+      <c r="A851" s="4"/>
+      <c r="F851" s="4"/>
+      <c r="G851" s="4"/>
+      <c r="O851" s="4"/>
+      <c r="Q851" s="4"/>
+    </row>
+    <row r="852" customHeight="1" spans="1:17">
+      <c r="A852" s="4"/>
+      <c r="F852" s="4"/>
+      <c r="G852" s="4"/>
+      <c r="O852" s="4"/>
+      <c r="Q852" s="4"/>
+    </row>
+    <row r="853" customHeight="1" spans="1:17">
+      <c r="A853" s="4"/>
+      <c r="F853" s="4"/>
+      <c r="G853" s="4"/>
+      <c r="O853" s="4"/>
+      <c r="Q853" s="4"/>
+    </row>
+    <row r="854" customHeight="1" spans="1:17">
+      <c r="A854" s="4"/>
+      <c r="F854" s="4"/>
+      <c r="G854" s="4"/>
+      <c r="O854" s="4"/>
+      <c r="Q854" s="4"/>
+    </row>
+    <row r="855" customHeight="1" spans="1:17">
+      <c r="A855" s="4"/>
+      <c r="F855" s="4"/>
+      <c r="G855" s="4"/>
+      <c r="O855" s="4"/>
+      <c r="Q855" s="4"/>
+    </row>
+    <row r="856" customHeight="1" spans="1:17">
+      <c r="A856" s="4"/>
+      <c r="F856" s="4"/>
+      <c r="G856" s="4"/>
+      <c r="O856" s="4"/>
+      <c r="Q856" s="4"/>
+    </row>
+    <row r="857" customHeight="1" spans="1:17">
+      <c r="A857" s="4"/>
+      <c r="F857" s="4"/>
+      <c r="G857" s="4"/>
+      <c r="O857" s="4"/>
+      <c r="Q857" s="4"/>
+    </row>
+    <row r="858" customHeight="1" spans="1:17">
+      <c r="A858" s="4"/>
+      <c r="F858" s="4"/>
+      <c r="G858" s="4"/>
+      <c r="O858" s="4"/>
+      <c r="Q858" s="4"/>
+    </row>
+    <row r="859" customHeight="1" spans="1:17">
+      <c r="A859" s="4"/>
+      <c r="F859" s="4"/>
+      <c r="G859" s="4"/>
+      <c r="O859" s="4"/>
+      <c r="Q859" s="4"/>
+    </row>
+    <row r="860" customHeight="1" spans="1:17">
+      <c r="A860" s="4"/>
+      <c r="F860" s="4"/>
+      <c r="G860" s="4"/>
+      <c r="O860" s="4"/>
+      <c r="Q860" s="4"/>
+    </row>
+    <row r="861" customHeight="1" spans="1:17">
+      <c r="A861" s="4"/>
+      <c r="F861" s="4"/>
+      <c r="G861" s="4"/>
+      <c r="O861" s="4"/>
+      <c r="Q861" s="4"/>
+    </row>
+    <row r="862" customHeight="1" spans="1:17">
+      <c r="A862" s="4"/>
+      <c r="F862" s="4"/>
+      <c r="G862" s="4"/>
+      <c r="O862" s="4"/>
+      <c r="Q862" s="4"/>
+    </row>
+    <row r="863" customHeight="1" spans="1:17">
+      <c r="A863" s="4"/>
+      <c r="F863" s="4"/>
+      <c r="G863" s="4"/>
+      <c r="O863" s="4"/>
+      <c r="Q863" s="4"/>
+    </row>
+    <row r="864" customHeight="1" spans="1:17">
+      <c r="A864" s="4"/>
+      <c r="F864" s="4"/>
+      <c r="G864" s="4"/>
+      <c r="O864" s="4"/>
+      <c r="Q864" s="4"/>
+    </row>
+    <row r="865" customHeight="1" spans="1:17">
+      <c r="A865" s="4"/>
+      <c r="F865" s="4"/>
+      <c r="G865" s="4"/>
+      <c r="O865" s="4"/>
+      <c r="Q865" s="4"/>
+    </row>
+    <row r="866" customHeight="1" spans="1:17">
+      <c r="A866" s="4"/>
+      <c r="F866" s="4"/>
+      <c r="G866" s="4"/>
+      <c r="O866" s="4"/>
+      <c r="Q866" s="4"/>
+    </row>
+    <row r="867" customHeight="1" spans="1:17">
+      <c r="A867" s="4"/>
+      <c r="F867" s="4"/>
+      <c r="G867" s="4"/>
+      <c r="O867" s="4"/>
+      <c r="Q867" s="4"/>
+    </row>
+    <row r="868" customHeight="1" spans="1:17">
+      <c r="A868" s="4"/>
+      <c r="F868" s="4"/>
+      <c r="G868" s="4"/>
+      <c r="O868" s="4"/>
+      <c r="Q868" s="4"/>
+    </row>
+    <row r="869" customHeight="1" spans="1:17">
+      <c r="A869" s="4"/>
+      <c r="F869" s="4"/>
+      <c r="G869" s="4"/>
+      <c r="O869" s="4"/>
+      <c r="Q869" s="4"/>
+    </row>
+    <row r="870" customHeight="1" spans="1:17">
+      <c r="A870" s="4"/>
+      <c r="F870" s="4"/>
+      <c r="G870" s="4"/>
+      <c r="O870" s="4"/>
+      <c r="Q870" s="4"/>
+    </row>
+    <row r="871" customHeight="1" spans="1:17">
+      <c r="A871" s="4"/>
+      <c r="F871" s="4"/>
+      <c r="G871" s="4"/>
+      <c r="O871" s="4"/>
+      <c r="Q871" s="4"/>
+    </row>
+    <row r="872" customHeight="1" spans="1:17">
+      <c r="A872" s="4"/>
+      <c r="F872" s="4"/>
+      <c r="G872" s="4"/>
+      <c r="O872" s="4"/>
+      <c r="Q872" s="4"/>
+    </row>
+    <row r="873" customHeight="1" spans="1:17">
+      <c r="A873" s="4"/>
+      <c r="F873" s="4"/>
+      <c r="G873" s="4"/>
+      <c r="O873" s="4"/>
+      <c r="Q873" s="4"/>
+    </row>
+    <row r="874" customHeight="1" spans="1:17">
+      <c r="A874" s="4"/>
+      <c r="F874" s="4"/>
+      <c r="G874" s="4"/>
+      <c r="O874" s="4"/>
+      <c r="Q874" s="4"/>
+    </row>
+    <row r="875" customHeight="1" spans="1:17">
+      <c r="A875" s="4"/>
+      <c r="F875" s="4"/>
+      <c r="G875" s="4"/>
+      <c r="O875" s="4"/>
+      <c r="Q875" s="4"/>
+    </row>
+    <row r="876" customHeight="1" spans="1:17">
+      <c r="A876" s="4"/>
+      <c r="F876" s="4"/>
+      <c r="G876" s="4"/>
+      <c r="O876" s="4"/>
+      <c r="Q876" s="4"/>
+    </row>
+    <row r="877" customHeight="1" spans="1:17">
+      <c r="A877" s="4"/>
+      <c r="F877" s="4"/>
+      <c r="G877" s="4"/>
+      <c r="O877" s="4"/>
+      <c r="Q877" s="4"/>
+    </row>
+    <row r="878" customHeight="1" spans="1:17">
+      <c r="A878" s="4"/>
+      <c r="F878" s="4"/>
+      <c r="G878" s="4"/>
+      <c r="O878" s="4"/>
+      <c r="Q878" s="4"/>
+    </row>
+    <row r="879" customHeight="1" spans="1:17">
+      <c r="A879" s="4"/>
+      <c r="F879" s="4"/>
+      <c r="G879" s="4"/>
+      <c r="O879" s="4"/>
+      <c r="Q879" s="4"/>
+    </row>
+    <row r="880" customHeight="1" spans="1:17">
+      <c r="A880" s="4"/>
+      <c r="F880" s="4"/>
+      <c r="G880" s="4"/>
+      <c r="O880" s="4"/>
+      <c r="Q880" s="4"/>
+    </row>
+    <row r="881" customHeight="1" spans="1:17">
+      <c r="A881" s="4"/>
+      <c r="F881" s="4"/>
+      <c r="G881" s="4"/>
+      <c r="O881" s="4"/>
+      <c r="Q881" s="4"/>
+    </row>
+    <row r="882" customHeight="1" spans="1:17">
+      <c r="A882" s="4"/>
+      <c r="F882" s="4"/>
+      <c r="G882" s="4"/>
+      <c r="O882" s="4"/>
+      <c r="Q882" s="4"/>
+    </row>
+    <row r="883" customHeight="1" spans="1:17">
+      <c r="A883" s="4"/>
+      <c r="F883" s="4"/>
+      <c r="G883" s="4"/>
+      <c r="O883" s="4"/>
+      <c r="Q883" s="4"/>
+    </row>
+    <row r="884" customHeight="1" spans="1:17">
+      <c r="A884" s="4"/>
+      <c r="F884" s="4"/>
+      <c r="G884" s="4"/>
+      <c r="O884" s="4"/>
+      <c r="Q884" s="4"/>
+    </row>
+    <row r="885" customHeight="1" spans="1:17">
+      <c r="A885" s="4"/>
+      <c r="F885" s="4"/>
+      <c r="G885" s="4"/>
+      <c r="O885" s="4"/>
+      <c r="Q885" s="4"/>
+    </row>
+    <row r="886" customHeight="1" spans="1:17">
+      <c r="A886" s="4"/>
+      <c r="F886" s="4"/>
+      <c r="G886" s="4"/>
+      <c r="O886" s="4"/>
+      <c r="Q886" s="4"/>
+    </row>
+    <row r="887" customHeight="1" spans="1:17">
+      <c r="A887" s="4"/>
+      <c r="F887" s="4"/>
+      <c r="G887" s="4"/>
+      <c r="O887" s="4"/>
+      <c r="Q887" s="4"/>
+    </row>
+    <row r="888" customHeight="1" spans="1:17">
+      <c r="A888" s="4"/>
+      <c r="F888" s="4"/>
+      <c r="G888" s="4"/>
+      <c r="O888" s="4"/>
+      <c r="Q888" s="4"/>
+    </row>
+    <row r="889" customHeight="1" spans="1:17">
+      <c r="A889" s="4"/>
+      <c r="F889" s="4"/>
+      <c r="G889" s="4"/>
+      <c r="O889" s="4"/>
+      <c r="Q889" s="4"/>
+    </row>
+    <row r="890" customHeight="1" spans="1:17">
+      <c r="A890" s="4"/>
+      <c r="F890" s="4"/>
+      <c r="G890" s="4"/>
+      <c r="O890" s="4"/>
+      <c r="Q890" s="4"/>
+    </row>
+    <row r="891" customHeight="1" spans="1:17">
+      <c r="A891" s="4"/>
+      <c r="F891" s="4"/>
+      <c r="G891" s="4"/>
+      <c r="O891" s="4"/>
+      <c r="Q891" s="4"/>
+    </row>
+    <row r="892" customHeight="1" spans="1:17">
+      <c r="A892" s="4"/>
+      <c r="F892" s="4"/>
+      <c r="G892" s="4"/>
+      <c r="O892" s="4"/>
+      <c r="Q892" s="4"/>
+    </row>
+    <row r="893" customHeight="1" spans="1:17">
+      <c r="A893" s="4"/>
+      <c r="F893" s="4"/>
+      <c r="G893" s="4"/>
+      <c r="O893" s="4"/>
+      <c r="Q893" s="4"/>
+    </row>
+    <row r="894" customHeight="1" spans="1:17">
+      <c r="A894" s="4"/>
+      <c r="F894" s="4"/>
+      <c r="G894" s="4"/>
+      <c r="O894" s="4"/>
+      <c r="Q894" s="4"/>
+    </row>
+    <row r="895" customHeight="1" spans="1:17">
+      <c r="A895" s="4"/>
+      <c r="F895" s="4"/>
+      <c r="G895" s="4"/>
+      <c r="O895" s="4"/>
+      <c r="Q895" s="4"/>
+    </row>
+    <row r="896" customHeight="1" spans="1:17">
+      <c r="A896" s="4"/>
+      <c r="F896" s="4"/>
+      <c r="G896" s="4"/>
+      <c r="O896" s="4"/>
+      <c r="Q896" s="4"/>
+    </row>
+    <row r="897" customHeight="1" spans="1:17">
+      <c r="A897" s="4"/>
+      <c r="F897" s="4"/>
+      <c r="G897" s="4"/>
+      <c r="O897" s="4"/>
+      <c r="Q897" s="4"/>
+    </row>
+    <row r="898" customHeight="1" spans="1:17">
+      <c r="A898" s="4"/>
+      <c r="F898" s="4"/>
+      <c r="G898" s="4"/>
+      <c r="O898" s="4"/>
+      <c r="Q898" s="4"/>
+    </row>
+    <row r="899" customHeight="1" spans="1:17">
+      <c r="A899" s="4"/>
+      <c r="F899" s="4"/>
+      <c r="G899" s="4"/>
+      <c r="O899" s="4"/>
+      <c r="Q899" s="4"/>
+    </row>
+    <row r="900" customHeight="1" spans="1:17">
+      <c r="A900" s="4"/>
+      <c r="F900" s="4"/>
+      <c r="G900" s="4"/>
+      <c r="O900" s="4"/>
+      <c r="Q900" s="4"/>
+    </row>
+    <row r="901" customHeight="1" spans="1:17">
+      <c r="A901" s="4"/>
+      <c r="F901" s="4"/>
+      <c r="G901" s="4"/>
+      <c r="O901" s="4"/>
+      <c r="Q901" s="4"/>
+    </row>
+    <row r="902" customHeight="1" spans="1:17">
+      <c r="A902" s="4"/>
+      <c r="F902" s="4"/>
+      <c r="G902" s="4"/>
+      <c r="O902" s="4"/>
+      <c r="Q902" s="4"/>
+    </row>
+    <row r="903" customHeight="1" spans="1:17">
+      <c r="A903" s="4"/>
+      <c r="F903" s="4"/>
+      <c r="G903" s="4"/>
+      <c r="O903" s="4"/>
+      <c r="Q903" s="4"/>
+    </row>
+    <row r="904" customHeight="1" spans="1:17">
+      <c r="A904" s="4"/>
+      <c r="F904" s="4"/>
+      <c r="G904" s="4"/>
+      <c r="O904" s="4"/>
+      <c r="Q904" s="4"/>
+    </row>
+    <row r="905" customHeight="1" spans="1:17">
+      <c r="A905" s="4"/>
+      <c r="F905" s="4"/>
+      <c r="G905" s="4"/>
+      <c r="O905" s="4"/>
+      <c r="Q905" s="4"/>
+    </row>
+    <row r="906" customHeight="1" spans="1:17">
+      <c r="A906" s="4"/>
+      <c r="F906" s="4"/>
+      <c r="G906" s="4"/>
+      <c r="O906" s="4"/>
+      <c r="Q906" s="4"/>
+    </row>
+    <row r="907" customHeight="1" spans="1:17">
+      <c r="A907" s="4"/>
+      <c r="F907" s="4"/>
+      <c r="G907" s="4"/>
+      <c r="O907" s="4"/>
+      <c r="Q907" s="4"/>
+    </row>
+    <row r="908" customHeight="1" spans="1:17">
+      <c r="A908" s="4"/>
+      <c r="F908" s="4"/>
+      <c r="G908" s="4"/>
+      <c r="O908" s="4"/>
+      <c r="Q908" s="4"/>
+    </row>
+    <row r="909" customHeight="1" spans="1:17">
+      <c r="A909" s="4"/>
+      <c r="F909" s="4"/>
+      <c r="G909" s="4"/>
+      <c r="O909" s="4"/>
+      <c r="Q909" s="4"/>
+    </row>
+    <row r="910" customHeight="1" spans="1:17">
+      <c r="A910" s="4"/>
+      <c r="F910" s="4"/>
+      <c r="G910" s="4"/>
+      <c r="O910" s="4"/>
+      <c r="Q910" s="4"/>
+    </row>
+    <row r="911" customHeight="1" spans="1:17">
+      <c r="A911" s="4"/>
+      <c r="F911" s="4"/>
+      <c r="G911" s="4"/>
+      <c r="O911" s="4"/>
+      <c r="Q911" s="4"/>
+    </row>
+    <row r="912" customHeight="1" spans="1:17">
+      <c r="A912" s="4"/>
+      <c r="F912" s="4"/>
+      <c r="G912" s="4"/>
+      <c r="O912" s="4"/>
+      <c r="Q912" s="4"/>
+    </row>
+    <row r="913" customHeight="1" spans="1:17">
+      <c r="A913" s="4"/>
+      <c r="F913" s="4"/>
+      <c r="G913" s="4"/>
+      <c r="O913" s="4"/>
+      <c r="Q913" s="4"/>
+    </row>
+    <row r="914" customHeight="1" spans="1:17">
+      <c r="A914" s="4"/>
+      <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
+      <c r="O914" s="4"/>
+      <c r="Q914" s="4"/>
+    </row>
+    <row r="915" customHeight="1" spans="1:17">
+      <c r="A915" s="4"/>
+      <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
+      <c r="O915" s="4"/>
+      <c r="Q915" s="4"/>
+    </row>
+    <row r="916" customHeight="1" spans="1:17">
+      <c r="A916" s="4"/>
+      <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
+      <c r="O916" s="4"/>
+      <c r="Q916" s="4"/>
+    </row>
+    <row r="917" customHeight="1" spans="1:17">
+      <c r="A917" s="4"/>
+      <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
+      <c r="O917" s="4"/>
+      <c r="Q917" s="4"/>
+    </row>
+    <row r="918" customHeight="1" spans="1:17">
+      <c r="A918" s="4"/>
+      <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
+      <c r="O918" s="4"/>
+      <c r="Q918" s="4"/>
+    </row>
+    <row r="919" customHeight="1" spans="1:17">
+      <c r="A919" s="4"/>
+      <c r="F919" s="4"/>
+      <c r="G919" s="4"/>
+      <c r="O919" s="4"/>
+      <c r="Q919" s="4"/>
+    </row>
+    <row r="920" customHeight="1" spans="1:17">
+      <c r="A920" s="4"/>
+      <c r="F920" s="4"/>
+      <c r="G920" s="4"/>
+      <c r="O920" s="4"/>
+      <c r="Q920" s="4"/>
+    </row>
+    <row r="921" customHeight="1" spans="1:17">
+      <c r="A921" s="4"/>
+      <c r="F921" s="4"/>
+      <c r="G921" s="4"/>
+      <c r="O921" s="4"/>
+      <c r="Q921" s="4"/>
+    </row>
+    <row r="922" customHeight="1" spans="1:17">
+      <c r="A922" s="4"/>
+      <c r="F922" s="4"/>
+      <c r="G922" s="4"/>
+      <c r="O922" s="4"/>
+      <c r="Q922" s="4"/>
+    </row>
+    <row r="923" customHeight="1" spans="1:17">
+      <c r="A923" s="4"/>
+      <c r="F923" s="4"/>
+      <c r="G923" s="4"/>
+      <c r="O923" s="4"/>
+      <c r="Q923" s="4"/>
+    </row>
+    <row r="924" customHeight="1" spans="1:17">
+      <c r="A924" s="4"/>
+      <c r="F924" s="4"/>
+      <c r="G924" s="4"/>
+      <c r="O924" s="4"/>
+      <c r="Q924" s="4"/>
+    </row>
+    <row r="925" customHeight="1" spans="1:17">
+      <c r="A925" s="4"/>
+      <c r="F925" s="4"/>
+      <c r="G925" s="4"/>
+      <c r="O925" s="4"/>
+      <c r="Q925" s="4"/>
+    </row>
+    <row r="926" customHeight="1" spans="1:17">
+      <c r="A926" s="4"/>
+      <c r="F926" s="4"/>
+      <c r="G926" s="4"/>
+      <c r="O926" s="4"/>
+      <c r="Q926" s="4"/>
+    </row>
+    <row r="927" customHeight="1" spans="1:17">
+      <c r="A927" s="4"/>
+      <c r="F927" s="4"/>
+      <c r="G927" s="4"/>
+      <c r="O927" s="4"/>
+      <c r="Q927" s="4"/>
+    </row>
+    <row r="928" customHeight="1" spans="1:17">
+      <c r="A928" s="4"/>
+      <c r="F928" s="4"/>
+      <c r="G928" s="4"/>
+      <c r="O928" s="4"/>
+      <c r="Q928" s="4"/>
+    </row>
+    <row r="929" customHeight="1" spans="1:17">
+      <c r="A929" s="4"/>
+      <c r="F929" s="4"/>
+      <c r="G929" s="4"/>
+      <c r="O929" s="4"/>
+      <c r="Q929" s="4"/>
+    </row>
+    <row r="930" customHeight="1" spans="1:17">
+      <c r="A930" s="4"/>
+      <c r="F930" s="4"/>
+      <c r="G930" s="4"/>
+      <c r="O930" s="4"/>
+      <c r="Q930" s="4"/>
+    </row>
+    <row r="931" customHeight="1" spans="1:17">
+      <c r="A931" s="4"/>
+      <c r="F931" s="4"/>
+      <c r="G931" s="4"/>
+      <c r="O931" s="4"/>
+      <c r="Q931" s="4"/>
+    </row>
+    <row r="932" customHeight="1" spans="1:17">
+      <c r="A932" s="4"/>
+      <c r="F932" s="4"/>
+      <c r="G932" s="4"/>
+      <c r="O932" s="4"/>
+      <c r="Q932" s="4"/>
+    </row>
+    <row r="933" customHeight="1" spans="1:17">
+      <c r="A933" s="4"/>
+      <c r="F933" s="4"/>
+      <c r="G933" s="4"/>
+      <c r="O933" s="4"/>
+      <c r="Q933" s="4"/>
+    </row>
+    <row r="934" customHeight="1" spans="1:17">
+      <c r="A934" s="4"/>
+      <c r="F934" s="4"/>
+      <c r="G934" s="4"/>
+      <c r="O934" s="4"/>
+      <c r="Q934" s="4"/>
+    </row>
+    <row r="935" customHeight="1" spans="1:17">
+      <c r="A935" s="4"/>
+      <c r="F935" s="4"/>
+      <c r="G935" s="4"/>
+      <c r="O935" s="4"/>
+      <c r="Q935" s="4"/>
+    </row>
+    <row r="936" customHeight="1" spans="1:17">
+      <c r="A936" s="4"/>
+      <c r="F936" s="4"/>
+      <c r="G936" s="4"/>
+      <c r="O936" s="4"/>
+      <c r="Q936" s="4"/>
+    </row>
+    <row r="937" customHeight="1" spans="1:17">
+      <c r="A937" s="4"/>
+      <c r="F937" s="4"/>
+      <c r="G937" s="4"/>
+      <c r="O937" s="4"/>
+      <c r="Q937" s="4"/>
+    </row>
+    <row r="938" customHeight="1" spans="1:17">
+      <c r="A938" s="4"/>
+      <c r="F938" s="4"/>
+      <c r="G938" s="4"/>
+      <c r="O938" s="4"/>
+      <c r="Q938" s="4"/>
+    </row>
+    <row r="939" customHeight="1" spans="1:17">
+      <c r="A939" s="4"/>
+      <c r="F939" s="4"/>
+      <c r="G939" s="4"/>
+      <c r="O939" s="4"/>
+      <c r="Q939" s="4"/>
+    </row>
+    <row r="940" customHeight="1" spans="1:17">
+      <c r="A940" s="4"/>
+      <c r="F940" s="4"/>
+      <c r="G940" s="4"/>
+      <c r="O940" s="4"/>
+      <c r="Q940" s="4"/>
+    </row>
+    <row r="941" customHeight="1" spans="1:17">
+      <c r="A941" s="4"/>
+      <c r="F941" s="4"/>
+      <c r="G941" s="4"/>
+      <c r="O941" s="4"/>
+      <c r="Q941" s="4"/>
+    </row>
+    <row r="942" customHeight="1" spans="1:17">
+      <c r="A942" s="4"/>
+      <c r="F942" s="4"/>
+      <c r="G942" s="4"/>
+      <c r="O942" s="4"/>
+      <c r="Q942" s="4"/>
+    </row>
+    <row r="943" customHeight="1" spans="1:17">
+      <c r="A943" s="4"/>
+      <c r="F943" s="4"/>
+      <c r="G943" s="4"/>
+      <c r="O943" s="4"/>
+      <c r="Q943" s="4"/>
+    </row>
+    <row r="944" customHeight="1" spans="1:17">
+      <c r="A944" s="4"/>
+      <c r="F944" s="4"/>
+      <c r="G944" s="4"/>
+      <c r="O944" s="4"/>
+      <c r="Q944" s="4"/>
+    </row>
+    <row r="945" customHeight="1" spans="1:17">
+      <c r="A945" s="4"/>
+      <c r="F945" s="4"/>
+      <c r="G945" s="4"/>
+      <c r="O945" s="4"/>
+      <c r="Q945" s="4"/>
+    </row>
+    <row r="946" customHeight="1" spans="1:17">
+      <c r="A946" s="4"/>
+      <c r="F946" s="4"/>
+      <c r="G946" s="4"/>
+      <c r="O946" s="4"/>
+      <c r="Q946" s="4"/>
+    </row>
+    <row r="947" customHeight="1" spans="1:17">
+      <c r="A947" s="4"/>
+      <c r="F947" s="4"/>
+      <c r="G947" s="4"/>
+      <c r="O947" s="4"/>
+      <c r="Q947" s="4"/>
+    </row>
+    <row r="948" customHeight="1" spans="1:17">
+      <c r="A948" s="4"/>
+      <c r="F948" s="4"/>
+      <c r="G948" s="4"/>
+      <c r="O948" s="4"/>
+      <c r="Q948" s="4"/>
+    </row>
+    <row r="949" customHeight="1" spans="1:17">
+      <c r="A949" s="4"/>
+      <c r="F949" s="4"/>
+      <c r="G949" s="4"/>
+      <c r="O949" s="4"/>
+      <c r="Q949" s="4"/>
+    </row>
+    <row r="950" customHeight="1" spans="1:17">
+      <c r="A950" s="4"/>
+      <c r="F950" s="4"/>
+      <c r="G950" s="4"/>
+      <c r="O950" s="4"/>
+      <c r="Q950" s="4"/>
+    </row>
+    <row r="951" customHeight="1" spans="1:17">
+      <c r="A951" s="4"/>
+      <c r="F951" s="4"/>
+      <c r="G951" s="4"/>
+      <c r="O951" s="4"/>
+      <c r="Q951" s="4"/>
+    </row>
+    <row r="952" customHeight="1" spans="1:17">
+      <c r="A952" s="4"/>
+      <c r="F952" s="4"/>
+      <c r="G952" s="4"/>
+      <c r="O952" s="4"/>
+      <c r="Q952" s="4"/>
+    </row>
+    <row r="953" customHeight="1" spans="1:17">
+      <c r="A953" s="4"/>
+      <c r="F953" s="4"/>
+      <c r="G953" s="4"/>
+      <c r="O953" s="4"/>
+      <c r="Q953" s="4"/>
+    </row>
+    <row r="954" customHeight="1" spans="1:17">
+      <c r="A954" s="4"/>
+      <c r="F954" s="4"/>
+      <c r="G954" s="4"/>
+      <c r="O954" s="4"/>
+      <c r="Q954" s="4"/>
+    </row>
+    <row r="955" customHeight="1" spans="1:17">
+      <c r="A955" s="4"/>
+      <c r="F955" s="4"/>
+      <c r="G955" s="4"/>
+      <c r="O955" s="4"/>
+      <c r="Q955" s="4"/>
+    </row>
+    <row r="956" customHeight="1" spans="1:17">
+      <c r="A956" s="4"/>
+      <c r="F956" s="4"/>
+      <c r="G956" s="4"/>
+      <c r="O956" s="4"/>
+      <c r="Q956" s="4"/>
+    </row>
+    <row r="957" customHeight="1" spans="1:17">
+      <c r="A957" s="4"/>
+      <c r="F957" s="4"/>
+      <c r="G957" s="4"/>
+      <c r="O957" s="4"/>
+      <c r="Q957" s="4"/>
+    </row>
+    <row r="958" customHeight="1" spans="1:17">
+      <c r="A958" s="4"/>
+      <c r="F958" s="4"/>
+      <c r="G958" s="4"/>
+      <c r="O958" s="4"/>
+      <c r="Q958" s="4"/>
+    </row>
+    <row r="959" customHeight="1" spans="1:17">
+      <c r="A959" s="4"/>
+      <c r="F959" s="4"/>
+      <c r="G959" s="4"/>
+      <c r="O959" s="4"/>
+      <c r="Q959" s="4"/>
+    </row>
+    <row r="960" customHeight="1" spans="1:17">
+      <c r="A960" s="4"/>
+      <c r="F960" s="4"/>
+      <c r="G960" s="4"/>
+      <c r="O960" s="4"/>
+      <c r="Q960" s="4"/>
+    </row>
+    <row r="961" customHeight="1" spans="1:17">
+      <c r="A961" s="4"/>
+      <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
+      <c r="O961" s="4"/>
+      <c r="Q961" s="4"/>
+    </row>
+    <row r="962" customHeight="1" spans="1:17">
+      <c r="A962" s="4"/>
+      <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
+      <c r="O962" s="4"/>
+      <c r="Q962" s="4"/>
+    </row>
+    <row r="963" customHeight="1" spans="1:17">
+      <c r="A963" s="4"/>
+      <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
+      <c r="O963" s="4"/>
+      <c r="Q963" s="4"/>
+    </row>
+    <row r="964" customHeight="1" spans="1:17">
+      <c r="A964" s="4"/>
+      <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
+      <c r="O964" s="4"/>
+      <c r="Q964" s="4"/>
+    </row>
+    <row r="965" customHeight="1" spans="1:17">
+      <c r="A965" s="4"/>
+      <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
+      <c r="O965" s="4"/>
+      <c r="Q965" s="4"/>
+    </row>
+    <row r="966" customHeight="1" spans="1:17">
+      <c r="A966" s="4"/>
+      <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
+      <c r="O966" s="4"/>
+      <c r="Q966" s="4"/>
+    </row>
+    <row r="967" customHeight="1" spans="1:17">
+      <c r="A967" s="4"/>
+      <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
+      <c r="O967" s="4"/>
+      <c r="Q967" s="4"/>
+    </row>
+    <row r="968" customHeight="1" spans="1:17">
+      <c r="A968" s="4"/>
+      <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
+      <c r="O968" s="4"/>
+      <c r="Q968" s="4"/>
+    </row>
+    <row r="969" customHeight="1" spans="1:17">
+      <c r="A969" s="4"/>
+      <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
+      <c r="O969" s="4"/>
+      <c r="Q969" s="4"/>
+    </row>
+    <row r="970" customHeight="1" spans="1:17">
+      <c r="A970" s="4"/>
+      <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
+      <c r="O970" s="4"/>
+      <c r="Q970" s="4"/>
+    </row>
+    <row r="971" customHeight="1" spans="1:17">
+      <c r="A971" s="4"/>
+      <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
+      <c r="O971" s="4"/>
+      <c r="Q971" s="4"/>
+    </row>
+    <row r="972" customHeight="1" spans="1:17">
+      <c r="A972" s="4"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
+      <c r="O972" s="4"/>
+      <c r="Q972" s="4"/>
+    </row>
+    <row r="973" customHeight="1" spans="1:17">
+      <c r="A973" s="4"/>
+      <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
+      <c r="O973" s="4"/>
+      <c r="Q973" s="4"/>
+    </row>
+    <row r="974" customHeight="1" spans="1:17">
+      <c r="A974" s="4"/>
+      <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
+      <c r="O974" s="4"/>
+      <c r="Q974" s="4"/>
+    </row>
+    <row r="975" customHeight="1" spans="1:17">
+      <c r="A975" s="4"/>
+      <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
+      <c r="O975" s="4"/>
+      <c r="Q975" s="4"/>
+    </row>
+    <row r="976" customHeight="1" spans="1:17">
+      <c r="A976" s="4"/>
+      <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
+      <c r="O976" s="4"/>
+      <c r="Q976" s="4"/>
+    </row>
+    <row r="977" customHeight="1" spans="1:17">
+      <c r="A977" s="4"/>
+      <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
+      <c r="O977" s="4"/>
+      <c r="Q977" s="4"/>
+    </row>
+    <row r="978" customHeight="1" spans="1:17">
+      <c r="A978" s="4"/>
+      <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
+      <c r="O978" s="4"/>
+      <c r="Q978" s="4"/>
+    </row>
+    <row r="979" customHeight="1" spans="1:17">
+      <c r="A979" s="4"/>
+      <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
+      <c r="O979" s="4"/>
+      <c r="Q979" s="4"/>
+    </row>
+    <row r="980" customHeight="1" spans="1:17">
+      <c r="A980" s="4"/>
+      <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
+      <c r="O980" s="4"/>
+      <c r="Q980" s="4"/>
+    </row>
+    <row r="981" customHeight="1" spans="1:17">
+      <c r="A981" s="4"/>
+      <c r="F981" s="4"/>
+      <c r="G981" s="4"/>
+      <c r="O981" s="4"/>
+      <c r="Q981" s="4"/>
+    </row>
+    <row r="982" customHeight="1" spans="1:17">
+      <c r="A982" s="4"/>
+      <c r="F982" s="4"/>
+      <c r="G982" s="4"/>
+      <c r="O982" s="4"/>
+      <c r="Q982" s="4"/>
+    </row>
+    <row r="983" customHeight="1" spans="1:17">
+      <c r="A983" s="4"/>
+      <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
+      <c r="O983" s="4"/>
+      <c r="Q983" s="4"/>
+    </row>
+    <row r="984" customHeight="1" spans="1:17">
+      <c r="A984" s="4"/>
+      <c r="F984" s="4"/>
+      <c r="G984" s="4"/>
+      <c r="O984" s="4"/>
+      <c r="Q984" s="4"/>
+    </row>
+    <row r="985" customHeight="1" spans="1:17">
+      <c r="A985" s="4"/>
+      <c r="F985" s="4"/>
+      <c r="G985" s="4"/>
+      <c r="O985" s="4"/>
+      <c r="Q985" s="4"/>
+    </row>
+    <row r="986" customHeight="1" spans="1:17">
+      <c r="A986" s="4"/>
+      <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
+      <c r="O986" s="4"/>
+      <c r="Q986" s="4"/>
+    </row>
+    <row r="987" customHeight="1" spans="1:17">
+      <c r="A987" s="4"/>
+      <c r="F987" s="4"/>
+      <c r="G987" s="4"/>
+      <c r="O987" s="4"/>
+      <c r="Q987" s="4"/>
+    </row>
+    <row r="988" customHeight="1" spans="1:17">
+      <c r="A988" s="4"/>
+      <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
+      <c r="O988" s="4"/>
+      <c r="Q988" s="4"/>
+    </row>
+    <row r="989" customHeight="1" spans="1:17">
+      <c r="A989" s="4"/>
+      <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
+      <c r="O989" s="4"/>
+      <c r="Q989" s="4"/>
+    </row>
+    <row r="990" customHeight="1" spans="1:17">
+      <c r="A990" s="4"/>
+      <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
+      <c r="O990" s="4"/>
+      <c r="Q990" s="4"/>
+    </row>
+    <row r="991" customHeight="1" spans="1:17">
+      <c r="A991" s="4"/>
+      <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
+      <c r="O991" s="4"/>
+      <c r="Q991" s="4"/>
+    </row>
+    <row r="992" customHeight="1" spans="1:17">
+      <c r="A992" s="4"/>
+      <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
+      <c r="O992" s="4"/>
+      <c r="Q992" s="4"/>
+    </row>
+    <row r="993" customHeight="1" spans="1:17">
+      <c r="A993" s="4"/>
+      <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
+      <c r="O993" s="4"/>
+      <c r="Q993" s="4"/>
+    </row>
+    <row r="994" customHeight="1" spans="1:17">
+      <c r="A994" s="4"/>
+      <c r="F994" s="4"/>
+      <c r="G994" s="4"/>
+      <c r="O994" s="4"/>
+      <c r="Q994" s="4"/>
+    </row>
+    <row r="995" customHeight="1" spans="1:17">
+      <c r="A995" s="4"/>
+      <c r="F995" s="4"/>
+      <c r="G995" s="4"/>
+      <c r="O995" s="4"/>
+      <c r="Q995" s="4"/>
+    </row>
+    <row r="996" customHeight="1" spans="1:17">
+      <c r="A996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="O996" s="4"/>
+      <c r="Q996" s="4"/>
+    </row>
+    <row r="997" customHeight="1" spans="1:17">
+      <c r="A997" s="4"/>
+      <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
+      <c r="O997" s="4"/>
+      <c r="Q997" s="4"/>
+    </row>
+    <row r="998" customHeight="1" spans="1:17">
+      <c r="A998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
+      <c r="O998" s="4"/>
+      <c r="Q998" s="4"/>
+    </row>
+    <row r="999" customHeight="1" spans="1:17">
+      <c r="A999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="Q999" s="4"/>
+    </row>
+    <row r="1000" customHeight="1" spans="1:17">
+      <c r="A1000" s="4"/>
+      <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
+      <c r="O1000" s="4"/>
+      <c r="Q1000" s="4"/>
+    </row>
+    <row r="1001" customHeight="1" spans="1:17">
+      <c r="A1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="Q1001" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
